--- a/Participantes/Leiner.xlsx
+++ b/Participantes/Leiner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leine\Documentos\QUINIELA-VENECA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leine\Documentos\QUINIELA-VENECA\Participantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73C97EA-945C-435F-9DDA-E072CE000B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C903B550-23A5-4B6A-AC9C-809F53A23CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1A07F19-1258-4827-8AF7-173CDFEC396E}"/>
   </bookViews>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="206">
   <si>
     <t>Países</t>
   </si>
@@ -1001,6 +1001,24 @@
   </si>
   <si>
     <t>Portero de oro</t>
+  </si>
+  <si>
+    <t>Leiner</t>
+  </si>
+  <si>
+    <t>Leinerzavar4@hotmail.com</t>
+  </si>
+  <si>
+    <t>Julian Alvarez</t>
+  </si>
+  <si>
+    <t>dibu</t>
+  </si>
+  <si>
+    <t>messi</t>
+  </si>
+  <si>
+    <t>Lautaro</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2236,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3002,6 +3020,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -8426,8 +8447,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8875,7 +8896,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="262" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8890,7 +8911,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="262" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8905,7 +8926,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="262" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8920,7 +8941,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="262" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8935,7 +8956,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="262" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -8944,7 +8965,7 @@
         <v>95</v>
       </c>
       <c r="C33" s="270" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="D33" s="271"/>
       <c r="E33" s="271"/>
@@ -8958,7 +8979,9 @@
       <c r="B35" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="270"/>
+      <c r="C35" s="300" t="s">
+        <v>201</v>
+      </c>
       <c r="D35" s="271"/>
       <c r="E35" s="271"/>
       <c r="F35" s="271"/>
@@ -8969,7 +8992,9 @@
       <c r="B37" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="263"/>
+      <c r="C37" s="263">
+        <v>4122326689</v>
+      </c>
       <c r="D37" s="264"/>
       <c r="F37" s="113" t="s">
         <v>176</v>
@@ -8987,12 +9012,15 @@
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C35:G35"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C35" r:id="rId1" xr:uid="{42E747DB-8D94-49FA-B896-AD2667A7F1EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
     <ignoredError sqref="D19" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11847,17 +11875,17 @@
       <c r="C8" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="221" t="str">
+      <c r="D8" s="221">
         <f ca="1">VLOOKUP(D1,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="E8" s="222" t="str">
+        <v>2</v>
+      </c>
+      <c r="E8" s="222">
         <f ca="1">+IF(D8="","",IF(D8&gt;F8,1,IF(D8=F8,"X",2)))</f>
-        <v/>
-      </c>
-      <c r="F8" s="223" t="str">
+        <v>1</v>
+      </c>
+      <c r="F8" s="223">
         <f ca="1">VLOOKUP(D1,Aux!$F:$O,10,0)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G8" s="221" t="str">
         <f ca="1">VLOOKUP(G1,Aux!$F:$O,9,0)</f>
@@ -14583,17 +14611,17 @@
       <c r="B3" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="191" t="str">
+      <c r="E3" s="191">
         <f ca="1">VLOOKUP(E2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="F3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="F3" s="191">
         <f ca="1">VLOOKUP(E2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="G3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3" s="191">
         <f ca="1">IF(OR(E3="",F3=""),"",IF(E3&gt;F3,1,IF(E3=F3,"x",2)))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H3" s="191" t="str">
         <f ca="1">VLOOKUP(H2,Aux!$F:$O,9,0)</f>
@@ -36862,27 +36890,27 @@
     <row r="1" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B1" s="85" t="str">
         <f>Normas!C33</f>
-        <v>Nombre</v>
-      </c>
-      <c r="C1" s="118">
+        <v>Leiner</v>
+      </c>
+      <c r="C1" s="118" t="str">
         <f>Normas!C35</f>
-        <v>0</v>
+        <v>Leinerzavar4@hotmail.com</v>
       </c>
       <c r="D1" s="118">
         <f>Normas!C37</f>
-        <v>0</v>
-      </c>
-      <c r="E1" s="84" t="str">
+        <v>4122326689</v>
+      </c>
+      <c r="E1" s="84">
         <f ca="1">+Resultado!E3</f>
-        <v/>
-      </c>
-      <c r="F1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="F1" s="84">
         <f ca="1">+Resultado!F3</f>
-        <v/>
-      </c>
-      <c r="G1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="G1" s="84">
         <f ca="1">+Resultado!G3</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H1" s="84" t="str">
         <f ca="1">+Resultado!H3</f>
@@ -37344,7 +37372,7 @@
   <dimension ref="B1:AU26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37615,7 +37643,7 @@
       <c r="AQ5" s="53"/>
       <c r="AR5" s="245">
         <f>+VLOOKUP(AR7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS5" s="245">
         <f>+VLOOKUP(AS7,$AD$9:$AF$15,3,0)</f>
@@ -37852,11 +37880,15 @@
         <f>+VLOOKUP(B9,Aux!F:S,5,0)</f>
         <v>Argentina</v>
       </c>
-      <c r="H9" s="258"/>
+      <c r="H9" s="258">
+        <v>2</v>
+      </c>
       <c r="I9" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="258"/>
+      <c r="J9" s="258">
+        <v>0</v>
+      </c>
       <c r="K9" s="38" t="str">
         <f>+VLOOKUP(B9,Aux!F:S,6,0)</f>
         <v>Canadá</v>
@@ -37882,11 +37914,11 @@
       <c r="R9" s="158"/>
       <c r="S9" s="159">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,5,0)</f>
@@ -37898,7 +37930,7 @@
       </c>
       <c r="W9" s="161">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9" s="161">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,8,0)</f>
@@ -37906,7 +37938,7 @@
       </c>
       <c r="Y9" s="161">
         <f>+W9-X9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="60"/>
       <c r="AA9" s="57"/>
@@ -37920,15 +37952,15 @@
       </c>
       <c r="AE9" s="53">
         <f>+AG9+AH9+AI9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="53">
         <f>+AG9*3+AH9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG9" s="53" cm="1">
         <f t="array" ref="AG9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="53" cm="1">
         <f t="array" ref="AH9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
@@ -37940,7 +37972,7 @@
       </c>
       <c r="AJ9" s="53" cm="1">
         <f t="array" ref="AJ9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)+($K$9:$K$22=$AD9)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK9" s="53" cm="1">
         <f t="array" ref="AK9">SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22))</f>
@@ -37948,15 +37980,15 @@
       </c>
       <c r="AL9" s="252">
         <f>+SUMIFS($AR9:$AU9,$AR$5:$AU$5,AF9)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="252">
         <f>+AJ9-AK9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN9" s="53">
         <f>+_xlfn.RANK.EQ(AF9,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM9,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ9,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL9,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.1110089999999999</v>
+        <v>1.114009</v>
       </c>
       <c r="AO9" s="53">
         <f>+_xlfn.RANK.EQ(AN9,$AN$9:$AN$15,1)</f>
@@ -37990,7 +38022,7 @@
 (SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AU$7)))*100
 +SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($J$9:$J$22)*($G$9:$G$22=AU$7))
 -SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($H$9:$H$22)*($G$9:$G$22=AU$7))</f>
-        <v>100</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:47" s="54" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38160,7 +38192,7 @@
       </c>
       <c r="AL11" s="252">
         <f>+SUMIFS($AR11:$AU11,$AR$5:$AU$5,AF11)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AM11" s="252">
         <f>+AJ11-AK11</f>
@@ -38168,7 +38200,7 @@
       </c>
       <c r="AN11" s="53">
         <f>+_xlfn.RANK.EQ(AF11,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM11,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ11,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL11,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.111011</v>
+        <v>2.2210110000000003</v>
       </c>
       <c r="AO11" s="53">
         <f t="shared" ref="AO11:AO15" si="2">+_xlfn.RANK.EQ(AN11,$AN$9:$AN$15,1)</f>
@@ -38372,7 +38404,7 @@
       </c>
       <c r="AL13" s="252">
         <f>+SUMIFS($AR13:$AU13,$AR$5:$AU$5,AF13)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AM13" s="252">
         <f>+AJ13-AK13</f>
@@ -38380,7 +38412,7 @@
       </c>
       <c r="AN13" s="53">
         <f>+_xlfn.RANK.EQ(AF13,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM13,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ13,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL13,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.111013</v>
+        <v>2.2210130000000001</v>
       </c>
       <c r="AO13" s="53">
         <f t="shared" si="2"/>
@@ -38530,7 +38562,7 @@
       </c>
       <c r="V15" s="160">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,6,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="161">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,7,0)</f>
@@ -38538,11 +38570,11 @@
       </c>
       <c r="X15" s="161">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="161">
         <f>+W15-X15</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z15" s="60"/>
       <c r="AA15" s="59"/>
@@ -38556,7 +38588,7 @@
       </c>
       <c r="AE15" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="53">
         <f t="shared" si="1"/>
@@ -38572,7 +38604,7 @@
       </c>
       <c r="AI15" s="53" cm="1">
         <f t="array" ref="AI15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="53" cm="1">
         <f t="array" ref="AJ15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)+($K$9:$K$22=$AD15)*($J$9:$J$22))</f>
@@ -38580,19 +38612,19 @@
       </c>
       <c r="AK15" s="53" cm="1">
         <f t="array" ref="AK15">SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL15" s="252">
         <f>+SUMIFS($AR15:$AU15,$AR$5:$AU$5,AF15)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AM15" s="252">
         <f>+AJ15-AK15</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN15" s="53">
         <f>+_xlfn.RANK.EQ(AF15,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM15,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ15,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL15,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.1110150000000001</v>
+        <v>2.4210149999999997</v>
       </c>
       <c r="AO15" s="53">
         <f t="shared" si="2"/>
@@ -38605,7 +38637,7 @@
 (SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AR$7)))*100
 +SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($J$9:$J$22)*($G$9:$G$22=AR$7))
 -SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($H$9:$H$22)*($G$9:$G$22=AR$7))</f>
-        <v>100</v>
+        <v>-2</v>
       </c>
       <c r="AS15" s="53" cm="1">
         <f t="array" ref="AS15">(SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AS$7)))*300+
@@ -45324,13 +45356,13 @@
       <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="68" t="str">
+      <c r="N2" s="68">
         <f ca="1">IF(VLOOKUP(F2,INDIRECT(M2&amp;"!B:M"),7,0)="","",VLOOKUP(F2,INDIRECT(M2&amp;"!B:M"),7,0))</f>
-        <v/>
-      </c>
-      <c r="O2" s="68" t="str">
+        <v>2</v>
+      </c>
+      <c r="O2" s="68">
         <f ca="1">IF(VLOOKUP(F2,INDIRECT(M2&amp;"!B:M"),9,0)="","",VLOOKUP(F2,INDIRECT(M2&amp;"!B:M"),9,0))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>13</v>

--- a/Participantes/Leiner.xlsx
+++ b/Participantes/Leiner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leine\Documentos\QUINIELA-VENECA\Participantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C903B550-23A5-4B6A-AC9C-809F53A23CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505A3D7E-60A5-4489-9203-F3CC7BC193C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1A07F19-1258-4827-8AF7-173CDFEC396E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{A1A07F19-1258-4827-8AF7-173CDFEC396E}"/>
   </bookViews>
   <sheets>
     <sheet name="Normas" sheetId="23" r:id="rId1"/>
@@ -2942,6 +2942,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="170" fontId="38" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3020,9 +3023,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -8447,7 +8447,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -8979,7 +8979,7 @@
       <c r="B35" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="300" t="s">
+      <c r="C35" s="273" t="s">
         <v>201</v>
       </c>
       <c r="D35" s="271"/>
@@ -9051,25 +9051,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="Q1" s="283" t="s">
+      <c r="Q1" s="284" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="3:28" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q2" s="284"/>
+      <c r="Q2" s="285"/>
     </row>
     <row r="3" spans="3:28" ht="56.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="143"/>
       <c r="D3" s="144"/>
-      <c r="E3" s="289" t="s">
+      <c r="E3" s="290" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289"/>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
       <c r="L3" s="144"/>
       <c r="M3" s="144"/>
       <c r="N3" s="145"/>
@@ -11609,34 +11609,34 @@
     </row>
     <row r="4" spans="1:31" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="214"/>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="291"/>
-      <c r="J4" s="291"/>
-      <c r="K4" s="291"/>
-      <c r="L4" s="291"/>
-      <c r="M4" s="291"/>
-      <c r="N4" s="291"/>
-      <c r="O4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="292"/>
+      <c r="M4" s="292"/>
+      <c r="N4" s="292"/>
+      <c r="O4" s="293"/>
       <c r="P4" s="123"/>
       <c r="R4" s="214"/>
-      <c r="S4" s="293" t="s">
+      <c r="S4" s="294" t="s">
         <v>175</v>
       </c>
-      <c r="T4" s="294"/>
-      <c r="U4" s="294"/>
-      <c r="V4" s="294"/>
-      <c r="W4" s="294"/>
-      <c r="X4" s="294"/>
-      <c r="Y4" s="294"/>
-      <c r="Z4" s="294"/>
-      <c r="AA4" s="295"/>
+      <c r="T4" s="295"/>
+      <c r="U4" s="295"/>
+      <c r="V4" s="295"/>
+      <c r="W4" s="295"/>
+      <c r="X4" s="295"/>
+      <c r="Y4" s="295"/>
+      <c r="Z4" s="295"/>
+      <c r="AA4" s="296"/>
       <c r="AB4" s="123"/>
       <c r="AD4" s="207" t="s">
         <v>11</v>
@@ -11648,30 +11648,30 @@
     <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="214"/>
       <c r="C5" s="146"/>
-      <c r="D5" s="296" t="str">
+      <c r="D5" s="297" t="str">
         <f>"Grupo "&amp;VLOOKUP(D1,Aux!$F:$O,8,0)</f>
         <v>Grupo A</v>
       </c>
-      <c r="E5" s="297"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="296" t="str">
+      <c r="E5" s="298"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="297" t="str">
         <f>"Grupo "&amp;VLOOKUP(G1,Aux!$F:$O,8,0)</f>
         <v>Grupo A</v>
       </c>
-      <c r="H5" s="297"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="296" t="str">
+      <c r="H5" s="298"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="297" t="str">
         <f>"Grupo "&amp;VLOOKUP(J1,Aux!$F:$O,8,0)</f>
         <v>Grupo B</v>
       </c>
-      <c r="K5" s="297"/>
-      <c r="L5" s="298"/>
-      <c r="M5" s="296" t="str">
+      <c r="K5" s="298"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="297" t="str">
         <f>"Grupo "&amp;VLOOKUP(M1,Aux!$F:$O,8,0)</f>
         <v>Grupo B</v>
       </c>
-      <c r="N5" s="297"/>
-      <c r="O5" s="298"/>
+      <c r="N5" s="298"/>
+      <c r="O5" s="299"/>
       <c r="P5" s="123"/>
       <c r="R5" s="214"/>
       <c r="S5" s="215"/>
@@ -11711,7 +11711,7 @@
     <row r="6" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="214"/>
       <c r="C6" s="146"/>
-      <c r="D6" s="299" t="str">
+      <c r="D6" s="300" t="str">
         <f>VLOOKUP(D1,Aux!$F:$O,5,0)</f>
         <v>Argentina</v>
       </c>
@@ -11719,11 +11719,11 @@
         <f>VLOOKUP(D1,Aux!$F:$O,3,0)</f>
         <v>45463.833333333336</v>
       </c>
-      <c r="F6" s="299" t="str">
+      <c r="F6" s="300" t="str">
         <f>VLOOKUP(D1,Aux!$F:$O,6,0)</f>
         <v>Canadá</v>
       </c>
-      <c r="G6" s="299" t="str">
+      <c r="G6" s="300" t="str">
         <f>VLOOKUP(G1,Aux!$F:$O,5,0)</f>
         <v>Perú</v>
       </c>
@@ -11731,11 +11731,11 @@
         <f>VLOOKUP(G1,Aux!$F:$O,3,0)</f>
         <v>45464.791666666664</v>
       </c>
-      <c r="I6" s="299" t="str">
+      <c r="I6" s="300" t="str">
         <f>VLOOKUP(G1,Aux!$F:$O,6,0)</f>
         <v>Chile</v>
       </c>
-      <c r="J6" s="299" t="str">
+      <c r="J6" s="300" t="str">
         <f>VLOOKUP(J1,Aux!$F:$O,5,0)</f>
         <v>Ecuador</v>
       </c>
@@ -11743,11 +11743,11 @@
         <f>VLOOKUP(J1,Aux!$F:$O,3,0)</f>
         <v>45465.625</v>
       </c>
-      <c r="L6" s="299" t="str">
+      <c r="L6" s="300" t="str">
         <f>VLOOKUP(J1,Aux!$F:$O,6,0)</f>
         <v>Venezuela</v>
       </c>
-      <c r="M6" s="299" t="str">
+      <c r="M6" s="300" t="str">
         <f>VLOOKUP(M1,Aux!$F:$O,5,0)</f>
         <v>México</v>
       </c>
@@ -11755,7 +11755,7 @@
         <f>VLOOKUP(M1,Aux!$F:$O,3,0)</f>
         <v>45465.833333333336</v>
       </c>
-      <c r="O6" s="299" t="str">
+      <c r="O6" s="300" t="str">
         <f>VLOOKUP(M1,Aux!$F:$O,6,0)</f>
         <v>Jamaica</v>
       </c>
@@ -11804,30 +11804,30 @@
     <row r="7" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="214"/>
       <c r="C7" s="146"/>
-      <c r="D7" s="299"/>
+      <c r="D7" s="300"/>
       <c r="E7" s="220">
         <f>+E6</f>
         <v>45463.833333333336</v>
       </c>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
       <c r="H7" s="220">
         <f>+H6</f>
         <v>45464.791666666664</v>
       </c>
-      <c r="I7" s="299"/>
-      <c r="J7" s="299"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="300"/>
       <c r="K7" s="220">
         <f>+K6</f>
         <v>45465.625</v>
       </c>
-      <c r="L7" s="299"/>
-      <c r="M7" s="299"/>
+      <c r="L7" s="300"/>
+      <c r="M7" s="300"/>
       <c r="N7" s="220">
         <f>+N6</f>
         <v>45465.833333333336</v>
       </c>
-      <c r="O7" s="299"/>
+      <c r="O7" s="300"/>
       <c r="P7" s="123"/>
       <c r="R7" s="214"/>
       <c r="S7" s="218" t="str">
@@ -11887,41 +11887,41 @@
         <f ca="1">VLOOKUP(D1,Aux!$F:$O,10,0)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="221" t="str">
+      <c r="G8" s="221">
         <f ca="1">VLOOKUP(G1,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="H8" s="222" t="str">
+        <v>1</v>
+      </c>
+      <c r="H8" s="222">
         <f ca="1">+IF(G8="","",IF(G8&gt;I8,1,IF(G8=I8,"X",2)))</f>
-        <v/>
-      </c>
-      <c r="I8" s="223" t="str">
+        <v>2</v>
+      </c>
+      <c r="I8" s="223">
         <f ca="1">VLOOKUP(G1,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="J8" s="221" t="str">
+        <v>2</v>
+      </c>
+      <c r="J8" s="221">
         <f ca="1">VLOOKUP(J1,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="K8" s="222" t="str">
+        <v>1</v>
+      </c>
+      <c r="K8" s="222">
         <f ca="1">+IF(J8="","",IF(J8&gt;L8,1,IF(J8=L8,"X",2)))</f>
-        <v/>
-      </c>
-      <c r="L8" s="223" t="str">
+        <v>2</v>
+      </c>
+      <c r="L8" s="223">
         <f ca="1">VLOOKUP(J1,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="M8" s="221" t="str">
+        <v>2</v>
+      </c>
+      <c r="M8" s="221">
         <f ca="1">VLOOKUP(M1,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="N8" s="222" t="str">
+        <v>1</v>
+      </c>
+      <c r="N8" s="222">
         <f ca="1">+IF(M8="","",IF(M8&gt;O8,1,IF(M8=O8,"X",2)))</f>
-        <v/>
-      </c>
-      <c r="O8" s="223" t="str">
+        <v>1</v>
+      </c>
+      <c r="O8" s="223">
         <f ca="1">VLOOKUP(M1,Aux!$F:$O,10,0)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P8" s="123"/>
       <c r="R8" s="214"/>
@@ -13787,20 +13787,20 @@
       <c r="Q32" s="259"/>
     </row>
     <row r="33" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q33" s="283" t="s">
+      <c r="Q33" s="284" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="34" spans="17:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q34" s="284"/>
+      <c r="Q34" s="285"/>
     </row>
     <row r="35" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q35" s="273" t="s">
+      <c r="Q35" s="274" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="36" spans="17:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q36" s="274"/>
+      <c r="Q36" s="275"/>
     </row>
     <row r="37" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q37" s="50"/>
@@ -14623,453 +14623,453 @@
         <f ca="1">IF(OR(E3="",F3=""),"",IF(E3&gt;F3,1,IF(E3=F3,"x",2)))</f>
         <v>1</v>
       </c>
-      <c r="H3" s="191" t="str">
+      <c r="H3" s="191">
         <f ca="1">VLOOKUP(H2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="I3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="I3" s="191">
         <f ca="1">VLOOKUP(H2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="J3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="J3" s="191">
         <f t="shared" ref="J3" ca="1" si="0">IF(OR(H3="",I3=""),"",IF(H3&gt;I3,1,IF(H3=I3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="K3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="K3" s="191">
         <f ca="1">VLOOKUP(K2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="L3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="L3" s="191">
         <f ca="1">VLOOKUP(K2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="M3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="M3" s="191">
         <f t="shared" ref="M3" ca="1" si="1">IF(OR(K3="",L3=""),"",IF(K3&gt;L3,1,IF(K3=L3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="N3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="N3" s="191">
         <f ca="1">VLOOKUP(N2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="O3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="O3" s="191">
         <f ca="1">VLOOKUP(N2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="P3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="P3" s="191">
         <f t="shared" ref="P3" ca="1" si="2">IF(OR(N3="",O3=""),"",IF(N3&gt;O3,1,IF(N3=O3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="Q3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="191">
         <f ca="1">VLOOKUP(Q2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="R3" s="191" t="str">
+        <v>4</v>
+      </c>
+      <c r="R3" s="191">
         <f ca="1">VLOOKUP(Q2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="S3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="S3" s="191">
         <f t="shared" ref="S3" ca="1" si="3">IF(OR(Q3="",R3=""),"",IF(Q3&gt;R3,1,IF(Q3=R3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="T3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="T3" s="191">
         <f ca="1">VLOOKUP(T2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="U3" s="191" t="str">
+        <v>4</v>
+      </c>
+      <c r="U3" s="191">
         <f ca="1">VLOOKUP(T2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="V3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="V3" s="191">
         <f t="shared" ref="V3" ca="1" si="4">IF(OR(T3="",U3=""),"",IF(T3&gt;U3,1,IF(T3=U3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="W3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="W3" s="191">
         <f ca="1">VLOOKUP(W2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="X3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="X3" s="191">
         <f ca="1">VLOOKUP(W2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="Y3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="191">
         <f t="shared" ref="Y3" ca="1" si="5">IF(OR(W3="",X3=""),"",IF(W3&gt;X3,1,IF(W3=X3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="Z3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="191">
         <f ca="1">VLOOKUP(Z2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="AA3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="191">
         <f ca="1">VLOOKUP(Z2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="AB3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="191">
         <f t="shared" ref="AB3" ca="1" si="6">IF(OR(Z3="",AA3=""),"",IF(Z3&gt;AA3,1,IF(Z3=AA3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="AC3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="191">
         <f ca="1">VLOOKUP(AC2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="AD3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="191">
         <f ca="1">VLOOKUP(AC2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="AE3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="191">
         <f t="shared" ref="AE3" ca="1" si="7">IF(OR(AC3="",AD3=""),"",IF(AC3&gt;AD3,1,IF(AC3=AD3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="AF3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="191">
         <f ca="1">VLOOKUP(AF2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="AG3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="191">
         <f ca="1">VLOOKUP(AF2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="AH3" s="191" t="str">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="191">
         <f t="shared" ref="AH3" ca="1" si="8">IF(OR(AF3="",AG3=""),"",IF(AF3&gt;AG3,1,IF(AF3=AG3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="AI3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="191">
         <f ca="1">VLOOKUP(AI2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="AJ3" s="191" t="str">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="191">
         <f ca="1">VLOOKUP(AI2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="AK3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="191">
         <f t="shared" ref="AK3" ca="1" si="9">IF(OR(AI3="",AJ3=""),"",IF(AI3&gt;AJ3,1,IF(AI3=AJ3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="AL3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="191">
         <f ca="1">VLOOKUP(AL2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="AM3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="191">
         <f ca="1">VLOOKUP(AL2,Aux!$F:$O,10,0)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AN3" s="191" t="str">
         <f t="shared" ref="AN3" ca="1" si="10">IF(OR(AL3="",AM3=""),"",IF(AL3&gt;AM3,1,IF(AL3=AM3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="AO3" s="191" t="str">
+        <v>x</v>
+      </c>
+      <c r="AO3" s="191">
         <f ca="1">VLOOKUP(AO2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="AP3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="191">
         <f ca="1">VLOOKUP(AO2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="AQ3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="191">
         <f t="shared" ref="AQ3" ca="1" si="11">IF(OR(AO3="",AP3=""),"",IF(AO3&gt;AP3,1,IF(AO3=AP3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="AR3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="191">
         <f ca="1">VLOOKUP(AR2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="AS3" s="191" t="str">
+        <v>3</v>
+      </c>
+      <c r="AS3" s="191">
         <f ca="1">VLOOKUP(AR2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="AT3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="191">
         <f t="shared" ref="AT3" ca="1" si="12">IF(OR(AR3="",AS3=""),"",IF(AR3&gt;AS3,1,IF(AR3=AS3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="AU3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="191">
         <f ca="1">VLOOKUP(AU2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="AV3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="191">
         <f ca="1">VLOOKUP(AU2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="AW3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="191">
         <f t="shared" ref="AW3" ca="1" si="13">IF(OR(AU3="",AV3=""),"",IF(AU3&gt;AV3,1,IF(AU3=AV3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="AX3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="191">
         <f ca="1">VLOOKUP(AX2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="AY3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="191">
         <f ca="1">VLOOKUP(AX2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="AZ3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="191">
         <f t="shared" ref="AZ3" ca="1" si="14">IF(OR(AX3="",AY3=""),"",IF(AX3&gt;AY3,1,IF(AX3=AY3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="BA3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="191">
         <f ca="1">VLOOKUP(BA2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="BB3" s="191" t="str">
+        <v>3</v>
+      </c>
+      <c r="BB3" s="191">
         <f ca="1">VLOOKUP(BA2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="BC3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="191">
         <f t="shared" ref="BC3" ca="1" si="15">IF(OR(BA3="",BB3=""),"",IF(BA3&gt;BB3,1,IF(BA3=BB3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="BD3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="191">
         <f ca="1">VLOOKUP(BD2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="BE3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="191">
         <f ca="1">VLOOKUP(BD2,Aux!$F:$O,10,0)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BF3" s="191" t="str">
         <f t="shared" ref="BF3" ca="1" si="16">IF(OR(BD3="",BE3=""),"",IF(BD3&gt;BE3,1,IF(BD3=BE3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="BG3" s="191" t="str">
+        <v>x</v>
+      </c>
+      <c r="BG3" s="191">
         <f ca="1">VLOOKUP(BG2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="BH3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="191">
         <f ca="1">VLOOKUP(BG2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="BI3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="191">
         <f t="shared" ref="BI3" ca="1" si="17">IF(OR(BG3="",BH3=""),"",IF(BG3&gt;BH3,1,IF(BG3=BH3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="BJ3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="191">
         <f ca="1">VLOOKUP(BJ2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="BK3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="191">
         <f ca="1">VLOOKUP(BJ2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="BL3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="191">
         <f t="shared" ref="BL3" ca="1" si="18">IF(OR(BJ3="",BK3=""),"",IF(BJ3&gt;BK3,1,IF(BJ3=BK3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="BM3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="BM3" s="191">
         <f ca="1">VLOOKUP(BM2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="BN3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="191">
         <f ca="1">VLOOKUP(BM2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="BO3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="191">
         <f t="shared" ref="BO3" ca="1" si="19">IF(OR(BM3="",BN3=""),"",IF(BM3&gt;BN3,1,IF(BM3=BN3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="BP3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="BP3" s="191">
         <f ca="1">VLOOKUP(BP2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="BQ3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="191">
         <f ca="1">VLOOKUP(BP2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="BR3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="191">
         <f t="shared" ref="BR3" ca="1" si="20">IF(OR(BP3="",BQ3=""),"",IF(BP3&gt;BQ3,1,IF(BP3=BQ3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="BS3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="191">
         <f ca="1">VLOOKUP(BS2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="BT3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="191">
         <f ca="1">VLOOKUP(BS2,Aux!$F:$O,10,0)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BU3" s="191" t="str">
         <f t="shared" ref="BU3" ca="1" si="21">IF(OR(BS3="",BT3=""),"",IF(BS3&gt;BT3,1,IF(BS3=BT3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="BV3" s="191" t="str">
+        <v>x</v>
+      </c>
+      <c r="BV3" s="191">
         <f ca="1">VLOOKUP(BV2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="BW3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="191">
         <f ca="1">VLOOKUP(BV2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="BX3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="191">
         <f t="shared" ref="BX3" ca="1" si="22">IF(OR(BV3="",BW3=""),"",IF(BV3&gt;BW3,1,IF(BV3=BW3,"x",2)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BY3" s="191" t="str" cm="1">
         <f t="array" aca="1" ref="BY3" ca="1">IF(INDIRECT(BY2&amp;"!AE9")&lt;3,"",INDIRECT(BY2&amp;"!P9"))</f>
-        <v/>
+        <v>Argentina</v>
       </c>
       <c r="BZ3" s="191" t="str" cm="1">
         <f t="array" aca="1" ref="BZ3" ca="1">IF(INDIRECT(BZ2&amp;"!AE9")&lt;3,"",INDIRECT(BZ2&amp;"!P9"))</f>
-        <v/>
+        <v>Venezuela</v>
       </c>
       <c r="CA3" s="191" t="str" cm="1">
         <f t="array" aca="1" ref="CA3" ca="1">IF(INDIRECT(CA2&amp;"!AE9")&lt;3,"",INDIRECT(CA2&amp;"!P9"))</f>
-        <v/>
+        <v>Uruguay</v>
       </c>
       <c r="CB3" s="191" t="str" cm="1">
         <f t="array" aca="1" ref="CB3" ca="1">IF(INDIRECT(CB2&amp;"!AE9")&lt;3,"",INDIRECT(CB2&amp;"!P9"))</f>
-        <v/>
+        <v>Colombia</v>
       </c>
       <c r="CC3" s="191" t="str">
         <f ca="1">IF(CB3="","",Cuartos!H9)</f>
-        <v/>
+        <v>Argentina</v>
       </c>
       <c r="CD3" s="191" t="str">
         <f ca="1">IF(CB3="","",Cuartos!N9)</f>
-        <v/>
+        <v>Ecuador</v>
       </c>
       <c r="CE3" s="191" t="str">
         <f ca="1">IF(CB3="","",Cuartos!H12)</f>
-        <v/>
+        <v>Venezuela</v>
       </c>
       <c r="CF3" s="191" t="str">
         <f ca="1">IF(CB3="","",Cuartos!N12)</f>
-        <v/>
+        <v>Chile</v>
       </c>
       <c r="CG3" s="191" t="str">
         <f ca="1">IF(CB3="","",Cuartos!H15)</f>
-        <v/>
+        <v>Colombia</v>
       </c>
       <c r="CH3" s="191" t="str">
         <f ca="1">IF(CB3="","",Cuartos!N15)</f>
-        <v/>
+        <v>Estados Unidos</v>
       </c>
       <c r="CI3" s="191" t="str">
         <f ca="1">IF(CB3="","",Cuartos!H18)</f>
-        <v/>
+        <v>Uruguay</v>
       </c>
       <c r="CJ3" s="191" t="str">
         <f ca="1">IF(CB3="","",Cuartos!N18)</f>
-        <v/>
+        <v>Brasil</v>
       </c>
       <c r="CK3" s="191" t="str">
-        <f>Semis!H9</f>
-        <v/>
+        <f ca="1">Semis!H9</f>
+        <v>Argentina</v>
       </c>
       <c r="CL3" s="191" t="str">
-        <f>Semis!N9</f>
-        <v/>
+        <f ca="1">Semis!N9</f>
+        <v>Venezuela</v>
       </c>
       <c r="CM3" s="191" t="str">
-        <f>Semis!H12</f>
-        <v/>
+        <f ca="1">Semis!H12</f>
+        <v>Uruguay</v>
       </c>
       <c r="CN3" s="191" t="str">
-        <f>Semis!N12</f>
-        <v/>
+        <f ca="1">Semis!N12</f>
+        <v>Colombia</v>
       </c>
       <c r="CO3" s="191" t="str">
-        <f>Final!H15</f>
-        <v/>
+        <f ca="1">Final!H15</f>
+        <v>Argentina</v>
       </c>
       <c r="CP3" s="191" t="str">
-        <f>Final!N15</f>
-        <v/>
+        <f ca="1">Final!N15</f>
+        <v>Uruguay</v>
       </c>
       <c r="CQ3" s="191" t="str">
-        <f>Final!H22</f>
-        <v/>
-      </c>
-      <c r="CR3" s="191" t="str">
+        <f ca="1">Final!H22</f>
+        <v>Argentina</v>
+      </c>
+      <c r="CR3" s="191">
         <f ca="1">VLOOKUP(CR2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="CS3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="CS3" s="191">
         <f ca="1">VLOOKUP(CR2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="CT3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="191">
         <f t="shared" ref="CT3" ca="1" si="23">IF(OR(CR3="",CS3=""),"",IF(CR3&gt;CS3,1,IF(CR3=CS3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="CU3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="CU3" s="191">
         <f ca="1">VLOOKUP(CU2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="CV3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="CV3" s="191">
         <f ca="1">VLOOKUP(CU2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="CW3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="191">
         <f t="shared" ref="CW3" ca="1" si="24">IF(OR(CU3="",CV3=""),"",IF(CU3&gt;CV3,1,IF(CU3=CV3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="CX3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="191">
         <f ca="1">VLOOKUP(CX2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="CY3" s="191" t="str">
+        <v>3</v>
+      </c>
+      <c r="CY3" s="191">
         <f ca="1">VLOOKUP(CX2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="CZ3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="CZ3" s="191">
         <f t="shared" ref="CZ3" ca="1" si="25">IF(OR(CX3="",CY3=""),"",IF(CX3&gt;CY3,1,IF(CX3=CY3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="DA3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="DA3" s="191">
         <f ca="1">VLOOKUP(DA2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="DB3" s="191" t="str">
+        <v>3</v>
+      </c>
+      <c r="DB3" s="191">
         <f ca="1">VLOOKUP(DA2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="DC3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="DC3" s="191">
         <f t="shared" ref="DC3" ca="1" si="26">IF(OR(DA3="",DB3=""),"",IF(DA3&gt;DB3,1,IF(DA3=DB3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="DD3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="DD3" s="191">
         <f ca="1">VLOOKUP(DD2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="DE3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="DE3" s="191">
         <f ca="1">VLOOKUP(DD2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="DF3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="191">
         <f t="shared" ref="DF3" ca="1" si="27">IF(OR(DD3="",DE3=""),"",IF(DD3&gt;DE3,1,IF(DD3=DE3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="DG3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="DG3" s="191">
         <f ca="1">VLOOKUP(DG2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="DH3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="DH3" s="191">
         <f ca="1">VLOOKUP(DG2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="DI3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="DI3" s="191">
         <f t="shared" ref="DI3" ca="1" si="28">IF(OR(DG3="",DH3=""),"",IF(DG3&gt;DH3,1,IF(DG3=DH3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="DJ3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="DJ3" s="191">
         <f ca="1">VLOOKUP(DJ2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="DK3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="DK3" s="191">
         <f ca="1">VLOOKUP(DJ2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="DL3" s="191" t="str">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="191">
         <f t="shared" ref="DL3" ca="1" si="29">IF(OR(DJ3="",DK3=""),"",IF(DJ3&gt;DK3,1,IF(DJ3=DK3,"x",2)))</f>
-        <v/>
-      </c>
-      <c r="DM3" s="191" t="str">
+        <v>1</v>
+      </c>
+      <c r="DM3" s="191">
         <f ca="1">VLOOKUP(DM2,Aux!$F:$O,9,0)</f>
-        <v/>
-      </c>
-      <c r="DN3" s="191" t="str">
+        <v>3</v>
+      </c>
+      <c r="DN3" s="191">
         <f ca="1">VLOOKUP(DM2,Aux!$F:$O,10,0)</f>
-        <v/>
-      </c>
-      <c r="DO3" s="191" t="str">
+        <v>2</v>
+      </c>
+      <c r="DO3" s="191">
         <f t="shared" ref="DO3" ca="1" si="30">IF(OR(DM3="",DN3=""),"",IF(DM3&gt;DN3,1,IF(DM3=DN3,"x",2)))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:119" x14ac:dyDescent="0.25">
@@ -36912,453 +36912,453 @@
         <f ca="1">+Resultado!G3</f>
         <v>1</v>
       </c>
-      <c r="H1" s="84" t="str">
+      <c r="H1" s="84">
         <f ca="1">+Resultado!H3</f>
-        <v/>
-      </c>
-      <c r="I1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="I1" s="84">
         <f ca="1">+Resultado!I3</f>
-        <v/>
-      </c>
-      <c r="J1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="J1" s="84">
         <f ca="1">+Resultado!J3</f>
-        <v/>
-      </c>
-      <c r="K1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="K1" s="84">
         <f ca="1">+Resultado!K3</f>
-        <v/>
-      </c>
-      <c r="L1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="L1" s="84">
         <f ca="1">+Resultado!L3</f>
-        <v/>
-      </c>
-      <c r="M1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="M1" s="84">
         <f ca="1">+Resultado!M3</f>
-        <v/>
-      </c>
-      <c r="N1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="N1" s="84">
         <f ca="1">+Resultado!N3</f>
-        <v/>
-      </c>
-      <c r="O1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="O1" s="84">
         <f ca="1">+Resultado!O3</f>
-        <v/>
-      </c>
-      <c r="P1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="P1" s="84">
         <f ca="1">+Resultado!P3</f>
-        <v/>
-      </c>
-      <c r="Q1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="84">
         <f ca="1">+Resultado!Q3</f>
-        <v/>
-      </c>
-      <c r="R1" s="84" t="str">
+        <v>4</v>
+      </c>
+      <c r="R1" s="84">
         <f ca="1">+Resultado!R3</f>
-        <v/>
-      </c>
-      <c r="S1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="S1" s="84">
         <f ca="1">+Resultado!S3</f>
-        <v/>
-      </c>
-      <c r="T1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="T1" s="84">
         <f ca="1">+Resultado!T3</f>
-        <v/>
-      </c>
-      <c r="U1" s="84" t="str">
+        <v>4</v>
+      </c>
+      <c r="U1" s="84">
         <f ca="1">+Resultado!U3</f>
-        <v/>
-      </c>
-      <c r="V1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="V1" s="84">
         <f ca="1">+Resultado!V3</f>
-        <v/>
-      </c>
-      <c r="W1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="W1" s="84">
         <f ca="1">+Resultado!W3</f>
-        <v/>
-      </c>
-      <c r="X1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="X1" s="84">
         <f ca="1">+Resultado!X3</f>
-        <v/>
-      </c>
-      <c r="Y1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="84">
         <f ca="1">+Resultado!Y3</f>
-        <v/>
-      </c>
-      <c r="Z1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="84">
         <f ca="1">+Resultado!Z3</f>
-        <v/>
-      </c>
-      <c r="AA1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="84">
         <f ca="1">+Resultado!AA3</f>
-        <v/>
-      </c>
-      <c r="AB1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="84">
         <f ca="1">+Resultado!AB3</f>
-        <v/>
-      </c>
-      <c r="AC1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="84">
         <f ca="1">+Resultado!AC3</f>
-        <v/>
-      </c>
-      <c r="AD1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="84">
         <f ca="1">+Resultado!AD3</f>
-        <v/>
-      </c>
-      <c r="AE1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="84">
         <f ca="1">+Resultado!AE3</f>
-        <v/>
-      </c>
-      <c r="AF1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="84">
         <f ca="1">+Resultado!AF3</f>
-        <v/>
-      </c>
-      <c r="AG1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="84">
         <f ca="1">+Resultado!AG3</f>
-        <v/>
-      </c>
-      <c r="AH1" s="84" t="str">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="84">
         <f ca="1">+Resultado!AH3</f>
-        <v/>
-      </c>
-      <c r="AI1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="AI1" s="84">
         <f ca="1">+Resultado!AI3</f>
-        <v/>
-      </c>
-      <c r="AJ1" s="84" t="str">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="84">
         <f ca="1">+Resultado!AJ3</f>
-        <v/>
-      </c>
-      <c r="AK1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="84">
         <f ca="1">+Resultado!AK3</f>
-        <v/>
-      </c>
-      <c r="AL1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="84">
         <f ca="1">+Resultado!AL3</f>
-        <v/>
-      </c>
-      <c r="AM1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="84">
         <f ca="1">+Resultado!AM3</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AN1" s="84" t="str">
         <f ca="1">+Resultado!AN3</f>
-        <v/>
-      </c>
-      <c r="AO1" s="84" t="str">
+        <v>x</v>
+      </c>
+      <c r="AO1" s="84">
         <f ca="1">+Resultado!AO3</f>
-        <v/>
-      </c>
-      <c r="AP1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="84">
         <f ca="1">+Resultado!AP3</f>
-        <v/>
-      </c>
-      <c r="AQ1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="AQ1" s="84">
         <f ca="1">+Resultado!AQ3</f>
-        <v/>
-      </c>
-      <c r="AR1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="AR1" s="84">
         <f ca="1">+Resultado!AR3</f>
-        <v/>
-      </c>
-      <c r="AS1" s="84" t="str">
+        <v>3</v>
+      </c>
+      <c r="AS1" s="84">
         <f ca="1">+Resultado!AS3</f>
-        <v/>
-      </c>
-      <c r="AT1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="84">
         <f ca="1">+Resultado!AT3</f>
-        <v/>
-      </c>
-      <c r="AU1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="84">
         <f ca="1">+Resultado!AU3</f>
-        <v/>
-      </c>
-      <c r="AV1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="AV1" s="84">
         <f ca="1">+Resultado!AV3</f>
-        <v/>
-      </c>
-      <c r="AW1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="84">
         <f ca="1">+Resultado!AW3</f>
-        <v/>
-      </c>
-      <c r="AX1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="84">
         <f ca="1">+Resultado!AX3</f>
-        <v/>
-      </c>
-      <c r="AY1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="84">
         <f ca="1">+Resultado!AY3</f>
-        <v/>
-      </c>
-      <c r="AZ1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="AZ1" s="84">
         <f ca="1">+Resultado!AZ3</f>
-        <v/>
-      </c>
-      <c r="BA1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="84">
         <f ca="1">+Resultado!BA3</f>
-        <v/>
-      </c>
-      <c r="BB1" s="84" t="str">
+        <v>3</v>
+      </c>
+      <c r="BB1" s="84">
         <f ca="1">+Resultado!BB3</f>
-        <v/>
-      </c>
-      <c r="BC1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC1" s="84">
         <f ca="1">+Resultado!BC3</f>
-        <v/>
-      </c>
-      <c r="BD1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="84">
         <f ca="1">+Resultado!BD3</f>
-        <v/>
-      </c>
-      <c r="BE1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="BE1" s="84">
         <f ca="1">+Resultado!BE3</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BF1" s="84" t="str">
         <f ca="1">+Resultado!BF3</f>
-        <v/>
-      </c>
-      <c r="BG1" s="84" t="str">
+        <v>x</v>
+      </c>
+      <c r="BG1" s="84">
         <f ca="1">+Resultado!BG3</f>
-        <v/>
-      </c>
-      <c r="BH1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="84">
         <f ca="1">+Resultado!BH3</f>
-        <v/>
-      </c>
-      <c r="BI1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="BI1" s="84">
         <f ca="1">+Resultado!BI3</f>
-        <v/>
-      </c>
-      <c r="BJ1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="BJ1" s="84">
         <f ca="1">+Resultado!BJ3</f>
-        <v/>
-      </c>
-      <c r="BK1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK1" s="84">
         <f ca="1">+Resultado!BK3</f>
-        <v/>
-      </c>
-      <c r="BL1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="BL1" s="84">
         <f ca="1">+Resultado!BL3</f>
-        <v/>
-      </c>
-      <c r="BM1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="BM1" s="84">
         <f ca="1">+Resultado!BM3</f>
-        <v/>
-      </c>
-      <c r="BN1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="BN1" s="84">
         <f ca="1">+Resultado!BN3</f>
-        <v/>
-      </c>
-      <c r="BO1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="BO1" s="84">
         <f ca="1">+Resultado!BO3</f>
-        <v/>
-      </c>
-      <c r="BP1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="BP1" s="84">
         <f ca="1">+Resultado!BP3</f>
-        <v/>
-      </c>
-      <c r="BQ1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="84">
         <f ca="1">+Resultado!BQ3</f>
-        <v/>
-      </c>
-      <c r="BR1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="84">
         <f ca="1">+Resultado!BR3</f>
-        <v/>
-      </c>
-      <c r="BS1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="BS1" s="84">
         <f ca="1">+Resultado!BS3</f>
-        <v/>
-      </c>
-      <c r="BT1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="BT1" s="84">
         <f ca="1">+Resultado!BT3</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BU1" s="84" t="str">
         <f ca="1">+Resultado!BU3</f>
-        <v/>
-      </c>
-      <c r="BV1" s="84" t="str">
+        <v>x</v>
+      </c>
+      <c r="BV1" s="84">
         <f ca="1">+Resultado!BV3</f>
-        <v/>
-      </c>
-      <c r="BW1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW1" s="84">
         <f ca="1">+Resultado!BW3</f>
-        <v/>
-      </c>
-      <c r="BX1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="BX1" s="84">
         <f ca="1">+Resultado!BX3</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BY1" s="84" t="str">
         <f ca="1">+Resultado!BY3</f>
-        <v/>
+        <v>Argentina</v>
       </c>
       <c r="BZ1" s="84" t="str">
         <f ca="1">+Resultado!BZ3</f>
-        <v/>
+        <v>Venezuela</v>
       </c>
       <c r="CA1" s="84" t="str">
         <f ca="1">+Resultado!CA3</f>
-        <v/>
+        <v>Uruguay</v>
       </c>
       <c r="CB1" s="84" t="str">
         <f ca="1">+Resultado!CB3</f>
-        <v/>
+        <v>Colombia</v>
       </c>
       <c r="CC1" s="84" t="str">
         <f ca="1">+Resultado!CC3</f>
-        <v/>
+        <v>Argentina</v>
       </c>
       <c r="CD1" s="84" t="str">
         <f ca="1">+Resultado!CD3</f>
-        <v/>
+        <v>Ecuador</v>
       </c>
       <c r="CE1" s="84" t="str">
         <f ca="1">+Resultado!CE3</f>
-        <v/>
+        <v>Venezuela</v>
       </c>
       <c r="CF1" s="84" t="str">
         <f ca="1">+Resultado!CF3</f>
-        <v/>
+        <v>Chile</v>
       </c>
       <c r="CG1" s="84" t="str">
         <f ca="1">+Resultado!CG3</f>
-        <v/>
+        <v>Colombia</v>
       </c>
       <c r="CH1" s="84" t="str">
         <f ca="1">+Resultado!CH3</f>
-        <v/>
+        <v>Estados Unidos</v>
       </c>
       <c r="CI1" s="84" t="str">
         <f ca="1">+Resultado!CI3</f>
-        <v/>
+        <v>Uruguay</v>
       </c>
       <c r="CJ1" s="84" t="str">
         <f ca="1">+Resultado!CJ3</f>
-        <v/>
+        <v>Brasil</v>
       </c>
       <c r="CK1" s="84" t="str">
-        <f>+Resultado!CK3</f>
-        <v/>
+        <f ca="1">+Resultado!CK3</f>
+        <v>Argentina</v>
       </c>
       <c r="CL1" s="84" t="str">
-        <f>+Resultado!CL3</f>
-        <v/>
+        <f ca="1">+Resultado!CL3</f>
+        <v>Venezuela</v>
       </c>
       <c r="CM1" s="84" t="str">
-        <f>+Resultado!CM3</f>
-        <v/>
+        <f ca="1">+Resultado!CM3</f>
+        <v>Uruguay</v>
       </c>
       <c r="CN1" s="84" t="str">
-        <f>+Resultado!CN3</f>
-        <v/>
+        <f ca="1">+Resultado!CN3</f>
+        <v>Colombia</v>
       </c>
       <c r="CO1" s="84" t="str">
-        <f>+Resultado!CO3</f>
-        <v/>
+        <f ca="1">+Resultado!CO3</f>
+        <v>Argentina</v>
       </c>
       <c r="CP1" s="84" t="str">
-        <f>+Resultado!CP3</f>
-        <v/>
+        <f ca="1">+Resultado!CP3</f>
+        <v>Uruguay</v>
       </c>
       <c r="CQ1" s="84" t="str">
-        <f>+Resultado!CQ3</f>
-        <v/>
-      </c>
-      <c r="CR1" s="84" t="str">
+        <f ca="1">+Resultado!CQ3</f>
+        <v>Argentina</v>
+      </c>
+      <c r="CR1" s="84">
         <f ca="1">+Resultado!CR3</f>
-        <v/>
-      </c>
-      <c r="CS1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="CS1" s="84">
         <f ca="1">+Resultado!CS3</f>
-        <v/>
-      </c>
-      <c r="CT1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="CT1" s="84">
         <f ca="1">+Resultado!CT3</f>
-        <v/>
-      </c>
-      <c r="CU1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="CU1" s="84">
         <f ca="1">+Resultado!CU3</f>
-        <v/>
-      </c>
-      <c r="CV1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="CV1" s="84">
         <f ca="1">+Resultado!CV3</f>
-        <v/>
-      </c>
-      <c r="CW1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="CW1" s="84">
         <f ca="1">+Resultado!CW3</f>
-        <v/>
-      </c>
-      <c r="CX1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="CX1" s="84">
         <f ca="1">+Resultado!CX3</f>
-        <v/>
-      </c>
-      <c r="CY1" s="84" t="str">
+        <v>3</v>
+      </c>
+      <c r="CY1" s="84">
         <f ca="1">+Resultado!CY3</f>
-        <v/>
-      </c>
-      <c r="CZ1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="CZ1" s="84">
         <f ca="1">+Resultado!CZ3</f>
-        <v/>
-      </c>
-      <c r="DA1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="DA1" s="84">
         <f ca="1">+Resultado!DA3</f>
-        <v/>
-      </c>
-      <c r="DB1" s="84" t="str">
+        <v>3</v>
+      </c>
+      <c r="DB1" s="84">
         <f ca="1">+Resultado!DB3</f>
-        <v/>
-      </c>
-      <c r="DC1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="DC1" s="84">
         <f ca="1">+Resultado!DC3</f>
-        <v/>
-      </c>
-      <c r="DD1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="DD1" s="84">
         <f ca="1">+Resultado!DD3</f>
-        <v/>
-      </c>
-      <c r="DE1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="DE1" s="84">
         <f ca="1">+Resultado!DE3</f>
-        <v/>
-      </c>
-      <c r="DF1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="DF1" s="84">
         <f ca="1">+Resultado!DF3</f>
-        <v/>
-      </c>
-      <c r="DG1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="DG1" s="84">
         <f ca="1">+Resultado!DG3</f>
-        <v/>
-      </c>
-      <c r="DH1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="DH1" s="84">
         <f ca="1">+Resultado!DH3</f>
-        <v/>
-      </c>
-      <c r="DI1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="DI1" s="84">
         <f ca="1">+Resultado!DI3</f>
-        <v/>
-      </c>
-      <c r="DJ1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="DJ1" s="84">
         <f ca="1">+Resultado!DJ3</f>
-        <v/>
-      </c>
-      <c r="DK1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="DK1" s="84">
         <f ca="1">+Resultado!DK3</f>
-        <v/>
-      </c>
-      <c r="DL1" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="DL1" s="84">
         <f ca="1">+Resultado!DL3</f>
-        <v/>
-      </c>
-      <c r="DM1" s="84" t="str">
+        <v>1</v>
+      </c>
+      <c r="DM1" s="84">
         <f ca="1">+Resultado!DM3</f>
-        <v/>
-      </c>
-      <c r="DN1" s="84" t="str">
+        <v>3</v>
+      </c>
+      <c r="DN1" s="84">
         <f ca="1">+Resultado!DN3</f>
-        <v/>
-      </c>
-      <c r="DO1" s="84" t="str">
+        <v>2</v>
+      </c>
+      <c r="DO1" s="84">
         <f ca="1">+Resultado!DO3</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -37372,7 +37372,7 @@
   <dimension ref="B1:AU26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37426,9 +37426,9 @@
       <c r="P1" s="51"/>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
       <c r="V1" s="52"/>
       <c r="W1" s="51"/>
       <c r="X1" s="51"/>
@@ -37643,7 +37643,7 @@
       <c r="AQ5" s="53"/>
       <c r="AR5" s="245">
         <f>+VLOOKUP(AR7,$AD$9:$AF$15,3,0)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AS5" s="245">
         <f>+VLOOKUP(AS7,$AD$9:$AF$15,3,0)</f>
@@ -37651,11 +37651,11 @@
       </c>
       <c r="AT5" s="245">
         <f>+VLOOKUP(AT7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU5" s="245">
         <f>+VLOOKUP(AU7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:47" s="54" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37668,33 +37668,33 @@
       <c r="D6" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="277"/>
-      <c r="L6" s="277"/>
-      <c r="M6" s="282"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="283"/>
       <c r="N6" s="185" t="s">
         <v>38</v>
       </c>
       <c r="O6" s="61"/>
-      <c r="P6" s="276" t="s">
+      <c r="P6" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="277"/>
-      <c r="R6" s="277"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="279"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="280"/>
       <c r="Z6" s="60"/>
       <c r="AA6" s="59"/>
       <c r="AB6" s="245"/>
@@ -37914,11 +37914,11 @@
       <c r="R9" s="158"/>
       <c r="S9" s="159">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,3,0)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,4,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,5,0)</f>
@@ -37930,15 +37930,15 @@
       </c>
       <c r="W9" s="161">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,7,0)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X9" s="161">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="161">
         <f>+W9-X9</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z9" s="60"/>
       <c r="AA9" s="57"/>
@@ -37952,15 +37952,15 @@
       </c>
       <c r="AE9" s="53">
         <f>+AG9+AH9+AI9</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="53">
         <f>+AG9*3+AH9</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AG9" s="53" cm="1">
         <f t="array" ref="AG9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH9" s="53" cm="1">
         <f t="array" ref="AH9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
@@ -37972,11 +37972,11 @@
       </c>
       <c r="AJ9" s="53" cm="1">
         <f t="array" ref="AJ9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)+($K$9:$K$22=$AD9)*($J$9:$J$22))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AK9" s="53" cm="1">
         <f t="array" ref="AK9">SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL9" s="252">
         <f>+SUMIFS($AR9:$AU9,$AR$5:$AU$5,AF9)</f>
@@ -37984,11 +37984,11 @@
       </c>
       <c r="AM9" s="252">
         <f>+AJ9-AK9</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AN9" s="53">
         <f>+_xlfn.RANK.EQ(AF9,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM9,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ9,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL9,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.114009</v>
+        <v>1.1130089999999999</v>
       </c>
       <c r="AO9" s="53">
         <f>+_xlfn.RANK.EQ(AN9,$AN$9:$AN$15,1)</f>
@@ -38008,14 +38008,14 @@
 (SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AS$7)))*100
 +SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD9)*($J$9:$J$22)*($G$9:$G$22=AS$7))
 -SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD9)*($H$9:$H$22)*($G$9:$G$22=AS$7))</f>
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="AT9" s="53" cm="1">
         <f t="array" ref="AT9">(SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AT$7)))*300+
 (SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AT$7)))*100
 +SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($J$9:$J$22)*($G$9:$G$22=AT$7))
 -SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($H$9:$H$22)*($G$9:$G$22=AT$7))</f>
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="AU9" s="53" cm="1">
         <f t="array" ref="AU9">(SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AU$7)))*300+
@@ -38096,11 +38096,15 @@
         <f>+VLOOKUP(B11,Aux!F:S,5,0)</f>
         <v>Perú</v>
       </c>
-      <c r="H11" s="258"/>
+      <c r="H11" s="258">
+        <v>1</v>
+      </c>
       <c r="I11" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="258"/>
+      <c r="J11" s="258">
+        <v>2</v>
+      </c>
       <c r="K11" s="38" t="str">
         <f>+VLOOKUP(B11,Aux!F:S,6,0)</f>
         <v>Chile</v>
@@ -38117,36 +38121,36 @@
       <c r="O11"/>
       <c r="P11" s="156" t="str">
         <f>+INDEX($AD$9:$AD$16,MATCH(2,$AO$9:$AO$15,0))</f>
-        <v>Perú</v>
-      </c>
-      <c r="Q11" s="157" t="e" vm="3">
+        <v>Chile</v>
+      </c>
+      <c r="Q11" s="157" t="e" vm="4">
         <f>IFERROR(VLOOKUP(P11,Aux!A:C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R11" s="158"/>
       <c r="S11" s="159">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,5,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,6,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="161">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X11" s="161">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="161">
         <f>+W11-X11</f>
@@ -38164,7 +38168,7 @@
       </c>
       <c r="AE11" s="53">
         <f t="shared" ref="AE11:AE15" si="0">+AG11+AH11+AI11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="53">
         <f t="shared" ref="AF11:AF15" si="1">+AG11*3+AH11</f>
@@ -38180,31 +38184,31 @@
       </c>
       <c r="AI11" s="53" cm="1">
         <f t="array" ref="AI11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ11" s="53" cm="1">
         <f t="array" ref="AJ11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)+($K$9:$K$22=$AD11)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="53" cm="1">
         <f t="array" ref="AK11">SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)+($K$9:$K$22=$AD11)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL11" s="252">
         <f>+SUMIFS($AR11:$AU11,$AR$5:$AU$5,AF11)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="252">
         <f>+AJ11-AK11</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AN11" s="53">
         <f>+_xlfn.RANK.EQ(AF11,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM11,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ11,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL11,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>2.2210110000000003</v>
+        <v>4.4430110000000003</v>
       </c>
       <c r="AO11" s="53">
         <f t="shared" ref="AO11:AO15" si="2">+_xlfn.RANK.EQ(AN11,$AN$9:$AN$15,1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP11" s="53"/>
       <c r="AQ11" s="53"/>
@@ -38213,7 +38217,7 @@
 (SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AR$7)))*100
 +SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD11)*($J$9:$J$22)*($G$9:$G$22=AR$7))
 -SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD11)*($H$9:$H$22)*($G$9:$G$22=AR$7))</f>
-        <v>100</v>
+        <v>-3</v>
       </c>
       <c r="AS11" s="53" cm="1">
         <f t="array" ref="AS11">(SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AS$7)))*300+
@@ -38227,14 +38231,14 @@
 (SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AT$7)))*100
 +SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($J$9:$J$22)*($G$9:$G$22=AT$7))
 -SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($H$9:$H$22)*($G$9:$G$22=AT$7))</f>
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="AU11" s="53" cm="1">
         <f t="array" ref="AU11">(SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AU$7)))*300+
 (SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AU$7)))*100
 +SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($J$9:$J$22)*($G$9:$G$22=AU$7))
 -SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22)*($G$9:$G$22=AU$7))</f>
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="2:47" s="54" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38308,11 +38312,15 @@
         <f>+VLOOKUP(B13,Aux!F:S,5,0)</f>
         <v>Perú</v>
       </c>
-      <c r="H13" s="258"/>
+      <c r="H13" s="258">
+        <v>0</v>
+      </c>
       <c r="I13" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="258"/>
+      <c r="J13" s="258">
+        <v>1</v>
+      </c>
       <c r="K13" s="38" t="str">
         <f>+VLOOKUP(B13,Aux!F:S,6,0)</f>
         <v>Canadá</v>
@@ -38329,40 +38337,40 @@
       <c r="O13"/>
       <c r="P13" s="156" t="str">
         <f>+INDEX($AD$9:$AD$16,MATCH(3,$AO$9:$AO$15,0))</f>
-        <v>Chile</v>
-      </c>
-      <c r="Q13" s="157" t="e" vm="4">
+        <v>Canadá</v>
+      </c>
+      <c r="Q13" s="157" t="e" vm="2">
         <f>IFERROR(VLOOKUP(P13,Aux!A:C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R13" s="158"/>
       <c r="S13" s="159">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,5,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,6,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="161">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X13" s="161">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y13" s="161">
         <f>+W13-X13</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z13" s="60"/>
       <c r="AA13" s="57"/>
@@ -38376,35 +38384,35 @@
       </c>
       <c r="AE13" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG13" s="53" cm="1">
         <f t="array" ref="AG13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="53" cm="1">
         <f t="array" ref="AH13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="53" cm="1">
         <f t="array" ref="AI13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="53" cm="1">
         <f t="array" ref="AJ13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)+($K$9:$K$22=$AD13)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK13" s="53" cm="1">
         <f t="array" ref="AK13">SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)+($K$9:$K$22=$AD13)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL13" s="252">
         <f>+SUMIFS($AR13:$AU13,$AR$5:$AU$5,AF13)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AM13" s="252">
         <f>+AJ13-AK13</f>
@@ -38416,7 +38424,7 @@
       </c>
       <c r="AO13" s="53">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP13" s="53"/>
       <c r="AQ13" s="53"/>
@@ -38425,14 +38433,14 @@
 (SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AR$7)))*100
 +SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD13)*($J$9:$J$22)*($G$9:$G$22=AR$7))
 -SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD13)*($H$9:$H$22)*($G$9:$G$22=AR$7))</f>
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="AS13" s="53" cm="1">
         <f t="array" ref="AS13">(SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AS$7)))*300+
 (SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AS$7)))*100
 +SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($J$9:$J$22)*($G$9:$G$22=AS$7))
 -SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($H$9:$H$22)*($G$9:$G$22=AS$7))</f>
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="AT13" s="53" cm="1">
         <f t="array" ref="AT13">(SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AT$7)))*300+
@@ -38520,11 +38528,15 @@
         <f>+VLOOKUP(B15,Aux!F:S,5,0)</f>
         <v>Chile</v>
       </c>
-      <c r="H15" s="258"/>
+      <c r="H15" s="258">
+        <v>2</v>
+      </c>
       <c r="I15" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="258"/>
+      <c r="J15" s="258">
+        <v>3</v>
+      </c>
       <c r="K15" s="38" t="str">
         <f>+VLOOKUP(B15,Aux!F:S,6,0)</f>
         <v>Argentina</v>
@@ -38541,9 +38553,9 @@
       <c r="O15"/>
       <c r="P15" s="156" t="str">
         <f>+INDEX($AD$9:$AD$16,MATCH(4,$AO$9:$AO$15,0))</f>
-        <v>Canadá</v>
-      </c>
-      <c r="Q15" s="157" t="e" vm="2">
+        <v>Perú</v>
+      </c>
+      <c r="Q15" s="157" t="e" vm="3">
         <f>IFERROR(VLOOKUP(P15,Aux!A:C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
@@ -38562,19 +38574,19 @@
       </c>
       <c r="V15" s="160">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,6,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W15" s="161">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="161">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,8,0)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y15" s="161">
         <f>+W15-X15</f>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="Z15" s="60"/>
       <c r="AA15" s="59"/>
@@ -38588,19 +38600,19 @@
       </c>
       <c r="AE15" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF15" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG15" s="53" cm="1">
         <f t="array" ref="AG15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="53" cm="1">
         <f t="array" ref="AH15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="53" cm="1">
         <f t="array" ref="AI15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22))</f>
@@ -38608,27 +38620,27 @@
       </c>
       <c r="AJ15" s="53" cm="1">
         <f t="array" ref="AJ15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)+($K$9:$K$22=$AD15)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK15" s="53" cm="1">
         <f t="array" ref="AK15">SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL15" s="252">
         <f>+SUMIFS($AR15:$AU15,$AR$5:$AU$5,AF15)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AM15" s="252">
         <f>+AJ15-AK15</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN15" s="53">
         <f>+_xlfn.RANK.EQ(AF15,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM15,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ15,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL15,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>2.4210149999999997</v>
+        <v>2.3310149999999994</v>
       </c>
       <c r="AO15" s="53">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP15" s="53"/>
       <c r="AQ15" s="53"/>
@@ -38644,7 +38656,7 @@
 (SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AS$7)))*100
 +SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($J$9:$J$22)*($G$9:$G$22=AS$7))
 -SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22)*($G$9:$G$22=AS$7))</f>
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="AT15" s="53" cm="1">
         <f t="array" ref="AT15">(SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AT$7)))*300+
@@ -38732,11 +38744,15 @@
         <f>+VLOOKUP(B17,Aux!F:S,5,0)</f>
         <v>Argentina</v>
       </c>
-      <c r="H17" s="258"/>
+      <c r="H17" s="258">
+        <v>3</v>
+      </c>
       <c r="I17" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="258"/>
+      <c r="J17" s="258">
+        <v>0</v>
+      </c>
       <c r="K17" s="38" t="str">
         <f>+VLOOKUP(B17,Aux!F:S,6,0)</f>
         <v>Perú</v>
@@ -38751,16 +38767,16 @@
         <v>Hard Rock Stadium - MIAMI, FL</v>
       </c>
       <c r="O17"/>
-      <c r="P17" s="280"/>
-      <c r="Q17" s="280"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="280"/>
-      <c r="T17" s="280"/>
-      <c r="U17" s="280"/>
-      <c r="V17" s="280"/>
-      <c r="W17" s="280"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="280"/>
+      <c r="P17" s="281"/>
+      <c r="Q17" s="281"/>
+      <c r="R17" s="281"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="281"/>
+      <c r="W17" s="281"/>
+      <c r="X17" s="281"/>
+      <c r="Y17" s="281"/>
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="53"/>
@@ -38831,11 +38847,15 @@
         <f>+VLOOKUP(B19,Aux!F:S,5,0)</f>
         <v>Canadá</v>
       </c>
-      <c r="H19" s="258"/>
+      <c r="H19" s="258">
+        <v>1</v>
+      </c>
       <c r="I19" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="258"/>
+      <c r="J19" s="258">
+        <v>1</v>
+      </c>
       <c r="K19" s="38" t="str">
         <f>+VLOOKUP(B19,Aux!F:S,6,0)</f>
         <v>Chile</v>
@@ -38893,20 +38913,20 @@
       <c r="K22" s="259"/>
     </row>
     <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K23" s="283" t="s">
+      <c r="K23" s="284" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K24" s="284"/>
+      <c r="K24" s="285"/>
     </row>
     <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K25" s="273" t="s">
+      <c r="K25" s="274" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K26" s="274"/>
+      <c r="K26" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -38968,7 +38988,7 @@
   <dimension ref="B1:AU26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39022,9 +39042,9 @@
       <c r="P1" s="51"/>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
       <c r="V1" s="52"/>
       <c r="W1" s="51"/>
       <c r="X1" s="51"/>
@@ -39239,15 +39259,15 @@
       <c r="AQ5" s="53"/>
       <c r="AR5" s="245">
         <f>+VLOOKUP(AR7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS5" s="245">
         <f>+VLOOKUP(AS7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT5" s="245">
         <f>+VLOOKUP(AT7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AU5" s="245">
         <f>+VLOOKUP(AU7,$AD$9:$AF$15,3,0)</f>
@@ -39264,33 +39284,33 @@
       <c r="D6" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="277"/>
-      <c r="L6" s="277"/>
-      <c r="M6" s="282"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="283"/>
       <c r="N6" s="185" t="s">
         <v>38</v>
       </c>
       <c r="O6" s="61"/>
-      <c r="P6" s="276" t="s">
+      <c r="P6" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="277"/>
-      <c r="R6" s="277"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="279"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="280"/>
       <c r="Z6" s="60"/>
       <c r="AA6" s="59"/>
       <c r="AB6" s="245"/>
@@ -39476,11 +39496,15 @@
         <f>+VLOOKUP(B9,Aux!F:S,5,0)</f>
         <v>Ecuador</v>
       </c>
-      <c r="H9" s="258"/>
+      <c r="H9" s="258">
+        <v>1</v>
+      </c>
       <c r="I9" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="258"/>
+      <c r="J9" s="258">
+        <v>2</v>
+      </c>
       <c r="K9" s="38" t="str">
         <f>+VLOOKUP(B9,Aux!F:S,6,0)</f>
         <v>Venezuela</v>
@@ -39497,24 +39521,24 @@
       <c r="O9"/>
       <c r="P9" s="156" t="str">
         <f>+INDEX($AD$9:$AD$16,MATCH(1,$AO$9:$AO$15,0))</f>
-        <v>México</v>
-      </c>
-      <c r="Q9" s="157" t="e" vm="7">
+        <v>Venezuela</v>
+      </c>
+      <c r="Q9" s="157" t="e" vm="6">
         <f>IFERROR(VLOOKUP(P9,Aux!A:C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R9" s="158"/>
       <c r="S9" s="159">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,5,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,6,0)</f>
@@ -39522,15 +39546,15 @@
       </c>
       <c r="W9" s="161">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9" s="161">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="161">
         <f>+W9-X9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="60"/>
       <c r="AA9" s="57"/>
@@ -39544,47 +39568,47 @@
       </c>
       <c r="AE9" s="53">
         <f>+AG9+AH9+AI9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="53">
         <f>+AG9*3+AH9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="53" cm="1">
         <f t="array" ref="AG9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="53" cm="1">
         <f t="array" ref="AH9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="53" cm="1">
         <f t="array" ref="AI9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="53" cm="1">
         <f t="array" ref="AJ9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)+($K$9:$K$22=$AD9)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="53" cm="1">
         <f t="array" ref="AK9">SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL9" s="252">
         <f>+SUMIFS($AR9:$AU9,$AR$5:$AU$5,AF9)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="252">
         <f>+AJ9-AK9</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN9" s="53">
         <f>+_xlfn.RANK.EQ(AF9,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM9,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ9,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL9,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.1110089999999999</v>
+        <v>3.3310089999999994</v>
       </c>
       <c r="AO9" s="53">
         <f>+_xlfn.RANK.EQ(AN9,$AN$9:$AN$15,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP9" s="53"/>
       <c r="AQ9" s="53"/>
@@ -39600,7 +39624,7 @@
 (SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AS$7)))*100
 +SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD9)*($J$9:$J$22)*($G$9:$G$22=AS$7))
 -SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD9)*($H$9:$H$22)*($G$9:$G$22=AS$7))</f>
-        <v>100</v>
+        <v>-2</v>
       </c>
       <c r="AT9" s="53" cm="1">
         <f t="array" ref="AT9">(SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AT$7)))*300+
@@ -39614,7 +39638,7 @@
 (SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AU$7)))*100
 +SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($J$9:$J$22)*($G$9:$G$22=AU$7))
 -SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($H$9:$H$22)*($G$9:$G$22=AU$7))</f>
-        <v>100</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="2:47" s="54" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39688,11 +39712,15 @@
         <f>+VLOOKUP(B11,Aux!F:S,5,0)</f>
         <v>México</v>
       </c>
-      <c r="H11" s="258"/>
+      <c r="H11" s="258">
+        <v>1</v>
+      </c>
       <c r="I11" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="258"/>
+      <c r="J11" s="258">
+        <v>0</v>
+      </c>
       <c r="K11" s="38" t="str">
         <f>+VLOOKUP(B11,Aux!F:S,6,0)</f>
         <v>Jamaica</v>
@@ -39718,11 +39746,11 @@
       <c r="R11" s="158"/>
       <c r="S11" s="159">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,5,0)</f>
@@ -39730,19 +39758,19 @@
       </c>
       <c r="V11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,6,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="161">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X11" s="161">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="161">
         <f>+W11-X11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="60"/>
       <c r="AA11" s="59"/>
@@ -39756,15 +39784,15 @@
       </c>
       <c r="AE11" s="53">
         <f t="shared" ref="AE11" si="0">+AG11+AH11+AI11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="53">
         <f t="shared" ref="AF11" si="1">+AG11*3+AH11</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG11" s="53" cm="1">
         <f t="array" ref="AG11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="53" cm="1">
         <f t="array" ref="AH11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
@@ -39772,27 +39800,27 @@
       </c>
       <c r="AI11" s="53" cm="1">
         <f t="array" ref="AI11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="53" cm="1">
         <f t="array" ref="AJ11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)+($K$9:$K$22=$AD11)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK11" s="53" cm="1">
         <f t="array" ref="AK11">SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)+($K$9:$K$22=$AD11)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL11" s="252">
         <f>+SUMIFS($AR11:$AU11,$AR$5:$AU$5,AF11)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="252">
         <f>+AJ11-AK11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN11" s="53">
         <f>+_xlfn.RANK.EQ(AF11,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM11,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ11,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL11,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.111011</v>
+        <v>2.111011</v>
       </c>
       <c r="AO11" s="53">
         <f t="shared" ref="AO11" si="2">+_xlfn.RANK.EQ(AN11,$AN$9:$AN$15,1)</f>
@@ -39805,7 +39833,7 @@
 (SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AR$7)))*100
 +SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD11)*($J$9:$J$22)*($G$9:$G$22=AR$7))
 -SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD11)*($H$9:$H$22)*($G$9:$G$22=AR$7))</f>
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="AS11" s="53" cm="1">
         <f t="array" ref="AS11">(SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AS$7)))*300+
@@ -39819,14 +39847,14 @@
 (SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AT$7)))*100
 +SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($J$9:$J$22)*($G$9:$G$22=AT$7))
 -SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($H$9:$H$22)*($G$9:$G$22=AT$7))</f>
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="AU11" s="53" cm="1">
         <f t="array" ref="AU11">(SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AU$7)))*300+
 (SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AU$7)))*100
 +SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($J$9:$J$22)*($G$9:$G$22=AU$7))
 -SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22)*($G$9:$G$22=AU$7))</f>
-        <v>100</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="2:47" s="54" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39900,11 +39928,15 @@
         <f>+VLOOKUP(B13,Aux!F:S,5,0)</f>
         <v>Ecuador</v>
       </c>
-      <c r="H13" s="258"/>
+      <c r="H13" s="258">
+        <v>3</v>
+      </c>
       <c r="I13" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="258"/>
+      <c r="J13" s="258">
+        <v>1</v>
+      </c>
       <c r="K13" s="38" t="str">
         <f>+VLOOKUP(B13,Aux!F:S,6,0)</f>
         <v>Jamaica</v>
@@ -39921,40 +39953,40 @@
       <c r="O13"/>
       <c r="P13" s="156" t="str">
         <f>+INDEX($AD$9:$AD$16,MATCH(3,$AO$9:$AO$15,0))</f>
-        <v>Venezuela</v>
-      </c>
-      <c r="Q13" s="157" t="e" vm="6">
+        <v>México</v>
+      </c>
+      <c r="Q13" s="157" t="e" vm="7">
         <f>IFERROR(VLOOKUP(P13,Aux!A:C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R13" s="158"/>
       <c r="S13" s="159">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,5,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,6,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="161">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="161">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="161">
         <f>+W13-X13</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z13" s="60"/>
       <c r="AA13" s="57"/>
@@ -39968,19 +40000,19 @@
       </c>
       <c r="AE13" s="53">
         <f t="shared" ref="AE13" si="3">+AG13+AH13+AI13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="53">
         <f t="shared" ref="AF13" si="4">+AG13*3+AH13</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG13" s="53" cm="1">
         <f t="array" ref="AG13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="53" cm="1">
         <f t="array" ref="AH13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="53" cm="1">
         <f t="array" ref="AI13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22))</f>
@@ -39988,27 +40020,27 @@
       </c>
       <c r="AJ13" s="53" cm="1">
         <f t="array" ref="AJ13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)+($K$9:$K$22=$AD13)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK13" s="53" cm="1">
         <f t="array" ref="AK13">SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)+($K$9:$K$22=$AD13)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="252">
         <f>+SUMIFS($AR13:$AU13,$AR$5:$AU$5,AF13)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="252">
         <f>+AJ13-AK13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN13" s="53">
         <f>+_xlfn.RANK.EQ(AF13,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM13,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ13,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL13,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.111013</v>
+        <v>1.2210129999999999</v>
       </c>
       <c r="AO13" s="53">
         <f t="shared" ref="AO13" si="5">+_xlfn.RANK.EQ(AN13,$AN$9:$AN$15,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="53"/>
       <c r="AQ13" s="53"/>
@@ -40024,7 +40056,7 @@
 (SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AS$7)))*100
 +SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($J$9:$J$22)*($G$9:$G$22=AS$7))
 -SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($H$9:$H$22)*($G$9:$G$22=AS$7))</f>
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="AT13" s="53" cm="1">
         <f t="array" ref="AT13">(SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AT$7)))*300+
@@ -40038,7 +40070,7 @@
 (SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AU$7)))*100
 +SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD13)*($J$9:$J$22)*($G$9:$G$22=AU$7))
 -SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD13)*($H$9:$H$22)*($G$9:$G$22=AU$7))</f>
-        <v>100</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="2:47" s="54" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -40112,11 +40144,15 @@
         <f>+VLOOKUP(B15,Aux!F:S,5,0)</f>
         <v>Venezuela</v>
       </c>
-      <c r="H15" s="258"/>
+      <c r="H15" s="258">
+        <v>0</v>
+      </c>
       <c r="I15" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="258"/>
+      <c r="J15" s="258">
+        <v>0</v>
+      </c>
       <c r="K15" s="38" t="str">
         <f>+VLOOKUP(B15,Aux!F:S,6,0)</f>
         <v>México</v>
@@ -40154,19 +40190,19 @@
       </c>
       <c r="V15" s="160">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,6,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W15" s="161">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="161">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="161">
         <f>+W15-X15</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="Z15" s="60"/>
       <c r="AA15" s="59"/>
@@ -40180,7 +40216,7 @@
       </c>
       <c r="AE15" s="53">
         <f t="shared" ref="AE15" si="6">+AG15+AH15+AI15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF15" s="53">
         <f t="shared" ref="AF15" si="7">+AG15*3+AH15</f>
@@ -40196,27 +40232,27 @@
       </c>
       <c r="AI15" s="53" cm="1">
         <f t="array" ref="AI15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ15" s="53" cm="1">
         <f t="array" ref="AJ15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)+($K$9:$K$22=$AD15)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="53" cm="1">
         <f t="array" ref="AK15">SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="252">
         <f>+SUMIFS($AR15:$AU15,$AR$5:$AU$5,AF15)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="252">
         <f>+AJ15-AK15</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AN15" s="53">
         <f>+_xlfn.RANK.EQ(AF15,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM15,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ15,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL15,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.1110150000000001</v>
+        <v>4.4310150000000013</v>
       </c>
       <c r="AO15" s="53">
         <f t="shared" ref="AO15" si="8">+_xlfn.RANK.EQ(AN15,$AN$9:$AN$15,1)</f>
@@ -40229,21 +40265,21 @@
 (SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AR$7)))*100
 +SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($J$9:$J$22)*($G$9:$G$22=AR$7))
 -SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($H$9:$H$22)*($G$9:$G$22=AR$7))</f>
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="AS15" s="53" cm="1">
         <f t="array" ref="AS15">(SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AS$7)))*300+
 (SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AS$7)))*100
 +SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($J$9:$J$22)*($G$9:$G$22=AS$7))
 -SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22)*($G$9:$G$22=AS$7))</f>
-        <v>100</v>
+        <v>-2</v>
       </c>
       <c r="AT15" s="53" cm="1">
         <f t="array" ref="AT15">(SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AT$7)))*300+
 (SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AT$7)))*100
 +SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($J$9:$J$22)*($G$9:$G$22=AT$7))
 -SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($H$9:$H$22)*($G$9:$G$22=AT$7))</f>
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="AU15" s="53" cm="1">
         <f t="array" ref="AU15">(SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AU$7)))*300+
@@ -40324,11 +40360,15 @@
         <f>+VLOOKUP(B17,Aux!F:S,5,0)</f>
         <v>México</v>
       </c>
-      <c r="H17" s="258"/>
+      <c r="H17" s="258">
+        <v>0</v>
+      </c>
       <c r="I17" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="258"/>
+      <c r="J17" s="258">
+        <v>2</v>
+      </c>
       <c r="K17" s="38" t="str">
         <f>+VLOOKUP(B17,Aux!F:S,6,0)</f>
         <v>Ecuador</v>
@@ -40343,16 +40383,16 @@
         <v>State Farm Stadium - GLENDALE, AZ</v>
       </c>
       <c r="O17"/>
-      <c r="P17" s="280"/>
-      <c r="Q17" s="280"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="280"/>
-      <c r="T17" s="280"/>
-      <c r="U17" s="280"/>
-      <c r="V17" s="280"/>
-      <c r="W17" s="280"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="280"/>
+      <c r="P17" s="281"/>
+      <c r="Q17" s="281"/>
+      <c r="R17" s="281"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="281"/>
+      <c r="W17" s="281"/>
+      <c r="X17" s="281"/>
+      <c r="Y17" s="281"/>
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="53"/>
@@ -40423,11 +40463,15 @@
         <f>+VLOOKUP(B19,Aux!F:S,5,0)</f>
         <v>Jamaica</v>
       </c>
-      <c r="H19" s="258"/>
+      <c r="H19" s="258">
+        <v>0</v>
+      </c>
       <c r="I19" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="258"/>
+      <c r="J19" s="258">
+        <v>1</v>
+      </c>
       <c r="K19" s="38" t="str">
         <f>+VLOOKUP(B19,Aux!F:S,6,0)</f>
         <v>Venezuela</v>
@@ -40485,20 +40529,20 @@
       <c r="K22" s="259"/>
     </row>
     <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K23" s="283" t="s">
+      <c r="K23" s="284" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K24" s="284"/>
+      <c r="K24" s="285"/>
     </row>
     <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K25" s="273" t="s">
+      <c r="K25" s="274" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K26" s="274"/>
+      <c r="K26" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -40614,9 +40658,9 @@
       <c r="P1" s="51"/>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
       <c r="V1" s="52"/>
       <c r="W1" s="51"/>
       <c r="X1" s="51"/>
@@ -40831,11 +40875,11 @@
       <c r="AQ5" s="53"/>
       <c r="AR5" s="245">
         <f>+VLOOKUP(AR7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS5" s="245">
         <f>+VLOOKUP(AS7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AT5" s="245">
         <f>+VLOOKUP(AT7,$AD$9:$AF$15,3,0)</f>
@@ -40843,7 +40887,7 @@
       </c>
       <c r="AU5" s="245">
         <f>+VLOOKUP(AU7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:47" s="54" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -40856,33 +40900,33 @@
       <c r="D6" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="277"/>
-      <c r="L6" s="277"/>
-      <c r="M6" s="282"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="283"/>
       <c r="N6" s="185" t="s">
         <v>38</v>
       </c>
       <c r="O6" s="61"/>
-      <c r="P6" s="276" t="s">
+      <c r="P6" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="277"/>
-      <c r="R6" s="277"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="279"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="280"/>
       <c r="Z6" s="60"/>
       <c r="AA6" s="59"/>
       <c r="AB6" s="245"/>
@@ -41068,11 +41112,15 @@
         <f>+VLOOKUP(B9,Aux!F:S,5,0)</f>
         <v>Estados Unidos</v>
       </c>
-      <c r="H9" s="258"/>
+      <c r="H9" s="258">
+        <v>4</v>
+      </c>
       <c r="I9" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="258"/>
+      <c r="J9" s="258">
+        <v>0</v>
+      </c>
       <c r="K9" s="38" t="str">
         <f>+VLOOKUP(B9,Aux!F:S,6,0)</f>
         <v>Bolivia</v>
@@ -41089,20 +41137,20 @@
       <c r="O9"/>
       <c r="P9" s="156" t="str">
         <f>+INDEX($AD$9:$AD$16,MATCH(1,$AO$9:$AO$15,0))</f>
-        <v>Estados Unidos</v>
-      </c>
-      <c r="Q9" s="157" t="e" vm="9">
+        <v>Uruguay</v>
+      </c>
+      <c r="Q9" s="157" t="e" vm="11">
         <f>IFERROR(VLOOKUP(P9,Aux!A:C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R9" s="158"/>
       <c r="S9" s="159">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,5,0)</f>
@@ -41114,15 +41162,15 @@
       </c>
       <c r="W9" s="161">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X9" s="161">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="161">
         <f>+W9-X9</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z9" s="60"/>
       <c r="AA9" s="57"/>
@@ -41136,15 +41184,15 @@
       </c>
       <c r="AE9" s="53">
         <f>+AG9+AH9+AI9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="53">
         <f>+AG9*3+AH9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG9" s="53" cm="1">
         <f t="array" ref="AG9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="53" cm="1">
         <f t="array" ref="AH9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
@@ -41152,31 +41200,31 @@
       </c>
       <c r="AI9" s="53" cm="1">
         <f t="array" ref="AI9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="53" cm="1">
         <f t="array" ref="AJ9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)+($K$9:$K$22=$AD9)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK9" s="53" cm="1">
         <f t="array" ref="AK9">SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL9" s="252">
         <f>+SUMIFS($AR9:$AU9,$AR$5:$AU$5,AF9)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="252">
         <f>+AJ9-AK9</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN9" s="53">
         <f>+_xlfn.RANK.EQ(AF9,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM9,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ9,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL9,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.1110089999999999</v>
+        <v>2.221009</v>
       </c>
       <c r="AO9" s="53">
         <f>+_xlfn.RANK.EQ(AN9,$AN$9:$AN$15,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP9" s="53"/>
       <c r="AQ9" s="53"/>
@@ -41192,21 +41240,21 @@
 (SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AS$7)))*100
 +SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD9)*($J$9:$J$22)*($G$9:$G$22=AS$7))
 -SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD9)*($H$9:$H$22)*($G$9:$G$22=AS$7))</f>
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="AT9" s="53" cm="1">
         <f t="array" ref="AT9">(SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AT$7)))*300+
 (SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AT$7)))*100
 +SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($J$9:$J$22)*($G$9:$G$22=AT$7))
 -SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($H$9:$H$22)*($G$9:$G$22=AT$7))</f>
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="AU9" s="53" cm="1">
         <f t="array" ref="AU9">(SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AU$7)))*300+
 (SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AU$7)))*100
 +SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($J$9:$J$22)*($G$9:$G$22=AU$7))
 -SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($H$9:$H$22)*($G$9:$G$22=AU$7))</f>
-        <v>100</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:47" s="54" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41280,11 +41328,15 @@
         <f>+VLOOKUP(B11,Aux!F:S,5,0)</f>
         <v>Uruguay</v>
       </c>
-      <c r="H11" s="258"/>
+      <c r="H11" s="258">
+        <v>4</v>
+      </c>
       <c r="I11" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="258"/>
+      <c r="J11" s="258">
+        <v>0</v>
+      </c>
       <c r="K11" s="38" t="str">
         <f>+VLOOKUP(B11,Aux!F:S,6,0)</f>
         <v>Panamá</v>
@@ -41301,20 +41353,20 @@
       <c r="O11"/>
       <c r="P11" s="156" t="str">
         <f>+INDEX($AD$9:$AD$16,MATCH(2,$AO$9:$AO$15,0))</f>
-        <v>Uruguay</v>
-      </c>
-      <c r="Q11" s="157" t="e" vm="11">
+        <v>Estados Unidos</v>
+      </c>
+      <c r="Q11" s="157" t="e" vm="9">
         <f>IFERROR(VLOOKUP(P11,Aux!A:C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R11" s="158"/>
       <c r="S11" s="159">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,5,0)</f>
@@ -41322,19 +41374,19 @@
       </c>
       <c r="V11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,6,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="161">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X11" s="161">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="161">
         <f>+W11-X11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="60"/>
       <c r="AA11" s="59"/>
@@ -41348,15 +41400,15 @@
       </c>
       <c r="AE11" s="53">
         <f t="shared" ref="AE11" si="0">+AG11+AH11+AI11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="53">
         <f t="shared" ref="AF11" si="1">+AG11*3+AH11</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG11" s="53" cm="1">
         <f t="array" ref="AG11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="53" cm="1">
         <f t="array" ref="AH11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
@@ -41368,19 +41420,19 @@
       </c>
       <c r="AJ11" s="53" cm="1">
         <f t="array" ref="AJ11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)+($K$9:$K$22=$AD11)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK11" s="53" cm="1">
         <f t="array" ref="AK11">SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)+($K$9:$K$22=$AD11)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="252">
         <f>+SUMIFS($AR11:$AU11,$AR$5:$AU$5,AF11)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="252">
         <f>+AJ11-AK11</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN11" s="53">
         <f>+_xlfn.RANK.EQ(AF11,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM11,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ11,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL11,$AL$9:$AL$15)/1000+ROW()/1000000</f>
@@ -41388,7 +41440,7 @@
       </c>
       <c r="AO11" s="53">
         <f t="shared" ref="AO11" si="2">+_xlfn.RANK.EQ(AN11,$AN$9:$AN$15,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="53"/>
       <c r="AQ11" s="53"/>
@@ -41397,7 +41449,7 @@
 (SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AR$7)))*100
 +SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD11)*($J$9:$J$22)*($G$9:$G$22=AR$7))
 -SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD11)*($H$9:$H$22)*($G$9:$G$22=AR$7))</f>
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="AS11" s="53" cm="1">
         <f t="array" ref="AS11">(SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AS$7)))*300+
@@ -41411,14 +41463,14 @@
 (SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AT$7)))*100
 +SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($J$9:$J$22)*($G$9:$G$22=AT$7))
 -SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($H$9:$H$22)*($G$9:$G$22=AT$7))</f>
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="AU11" s="53" cm="1">
         <f t="array" ref="AU11">(SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AU$7)))*300+
 (SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AU$7)))*100
 +SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($J$9:$J$22)*($G$9:$G$22=AU$7))
 -SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22)*($G$9:$G$22=AU$7))</f>
-        <v>100</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="2:47" s="54" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41492,11 +41544,15 @@
         <f>+VLOOKUP(B13,Aux!F:S,5,0)</f>
         <v>Panamá</v>
       </c>
-      <c r="H13" s="258"/>
+      <c r="H13" s="258">
+        <v>0</v>
+      </c>
       <c r="I13" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="258"/>
+      <c r="J13" s="258">
+        <v>2</v>
+      </c>
       <c r="K13" s="38" t="str">
         <f>+VLOOKUP(B13,Aux!F:S,6,0)</f>
         <v>Estados Unidos</v>
@@ -41513,20 +41569,20 @@
       <c r="O13"/>
       <c r="P13" s="156" t="str">
         <f>+INDEX($AD$9:$AD$16,MATCH(3,$AO$9:$AO$15,0))</f>
-        <v>Panamá</v>
-      </c>
-      <c r="Q13" s="157" t="e" vm="12">
+        <v>Bolivia</v>
+      </c>
+      <c r="Q13" s="157" t="e" vm="10">
         <f>IFERROR(VLOOKUP(P13,Aux!A:C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R13" s="158"/>
       <c r="S13" s="159">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,5,0)</f>
@@ -41534,19 +41590,19 @@
       </c>
       <c r="V13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,6,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" s="161">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="161">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="161">
         <f>+W13-X13</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="Z13" s="60"/>
       <c r="AA13" s="57"/>
@@ -41560,7 +41616,7 @@
       </c>
       <c r="AE13" s="53">
         <f t="shared" ref="AE13" si="3">+AG13+AH13+AI13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="53">
         <f t="shared" ref="AF13" si="4">+AG13*3+AH13</f>
@@ -41576,7 +41632,7 @@
       </c>
       <c r="AI13" s="53" cm="1">
         <f t="array" ref="AI13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ13" s="53" cm="1">
         <f t="array" ref="AJ13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)+($K$9:$K$22=$AD13)*($J$9:$J$22))</f>
@@ -41584,23 +41640,23 @@
       </c>
       <c r="AK13" s="53" cm="1">
         <f t="array" ref="AK13">SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)+($K$9:$K$22=$AD13)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL13" s="252">
         <f>+SUMIFS($AR13:$AU13,$AR$5:$AU$5,AF13)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="252">
         <f>+AJ13-AK13</f>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="AN13" s="53">
         <f>+_xlfn.RANK.EQ(AF13,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM13,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ13,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL13,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.111013</v>
+        <v>4.4410130000000008</v>
       </c>
       <c r="AO13" s="53">
         <f t="shared" ref="AO13" si="5">+_xlfn.RANK.EQ(AN13,$AN$9:$AN$15,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP13" s="53"/>
       <c r="AQ13" s="53"/>
@@ -41609,14 +41665,14 @@
 (SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AR$7)))*100
 +SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD13)*($J$9:$J$22)*($G$9:$G$22=AR$7))
 -SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD13)*($H$9:$H$22)*($G$9:$G$22=AR$7))</f>
-        <v>100</v>
+        <v>-2</v>
       </c>
       <c r="AS13" s="53" cm="1">
         <f t="array" ref="AS13">(SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AS$7)))*300+
 (SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AS$7)))*100
 +SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($J$9:$J$22)*($G$9:$G$22=AS$7))
 -SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($H$9:$H$22)*($G$9:$G$22=AS$7))</f>
-        <v>100</v>
+        <v>-4</v>
       </c>
       <c r="AT13" s="53" cm="1">
         <f t="array" ref="AT13">(SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AT$7)))*300+
@@ -41630,7 +41686,7 @@
 (SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AU$7)))*100
 +SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD13)*($J$9:$J$22)*($G$9:$G$22=AU$7))
 -SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD13)*($H$9:$H$22)*($G$9:$G$22=AU$7))</f>
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="2:47" s="54" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41704,11 +41760,15 @@
         <f>+VLOOKUP(B15,Aux!F:S,5,0)</f>
         <v>Uruguay</v>
       </c>
-      <c r="H15" s="258"/>
+      <c r="H15" s="258">
+        <v>3</v>
+      </c>
       <c r="I15" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="258"/>
+      <c r="J15" s="258">
+        <v>0</v>
+      </c>
       <c r="K15" s="38" t="str">
         <f>+VLOOKUP(B15,Aux!F:S,6,0)</f>
         <v>Bolivia</v>
@@ -41725,9 +41785,9 @@
       <c r="O15"/>
       <c r="P15" s="156" t="str">
         <f>+INDEX($AD$9:$AD$16,MATCH(4,$AO$9:$AO$15,0))</f>
-        <v>Bolivia</v>
-      </c>
-      <c r="Q15" s="157" t="e" vm="10">
+        <v>Panamá</v>
+      </c>
+      <c r="Q15" s="157" t="e" vm="12">
         <f>IFERROR(VLOOKUP(P15,Aux!A:C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
@@ -41746,7 +41806,7 @@
       </c>
       <c r="V15" s="160">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,6,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W15" s="161">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,7,0)</f>
@@ -41754,11 +41814,11 @@
       </c>
       <c r="X15" s="161">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y15" s="161">
         <f>+W15-X15</f>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="Z15" s="60"/>
       <c r="AA15" s="59"/>
@@ -41772,15 +41832,15 @@
       </c>
       <c r="AE15" s="53">
         <f t="shared" ref="AE15" si="6">+AG15+AH15+AI15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF15" s="53">
         <f t="shared" ref="AF15" si="7">+AG15*3+AH15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG15" s="53" cm="1">
         <f t="array" ref="AG15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="53" cm="1">
         <f t="array" ref="AH15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
@@ -41788,31 +41848,31 @@
       </c>
       <c r="AI15" s="53" cm="1">
         <f t="array" ref="AI15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ15" s="53" cm="1">
         <f t="array" ref="AJ15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)+($K$9:$K$22=$AD15)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="53" cm="1">
         <f t="array" ref="AK15">SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL15" s="252">
         <f>+SUMIFS($AR15:$AU15,$AR$5:$AU$5,AF15)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="252">
         <f>+AJ15-AK15</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AN15" s="53">
         <f>+_xlfn.RANK.EQ(AF15,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM15,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ15,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL15,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.1110150000000001</v>
+        <v>3.3310149999999994</v>
       </c>
       <c r="AO15" s="53">
         <f t="shared" ref="AO15" si="8">+_xlfn.RANK.EQ(AN15,$AN$9:$AN$15,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP15" s="53"/>
       <c r="AQ15" s="53"/>
@@ -41821,21 +41881,21 @@
 (SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AR$7)))*100
 +SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($J$9:$J$22)*($G$9:$G$22=AR$7))
 -SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($H$9:$H$22)*($G$9:$G$22=AR$7))</f>
-        <v>100</v>
+        <v>-4</v>
       </c>
       <c r="AS15" s="53" cm="1">
         <f t="array" ref="AS15">(SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AS$7)))*300+
 (SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AS$7)))*100
 +SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($J$9:$J$22)*($G$9:$G$22=AS$7))
 -SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22)*($G$9:$G$22=AS$7))</f>
-        <v>100</v>
+        <v>-3</v>
       </c>
       <c r="AT15" s="53" cm="1">
         <f t="array" ref="AT15">(SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AT$7)))*300+
 (SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AT$7)))*100
 +SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($J$9:$J$22)*($G$9:$G$22=AT$7))
 -SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($H$9:$H$22)*($G$9:$G$22=AT$7))</f>
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="AU15" s="53" cm="1">
         <f t="array" ref="AU15">(SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AU$7)))*300+
@@ -41916,11 +41976,15 @@
         <f>+VLOOKUP(B17,Aux!F:S,5,0)</f>
         <v>Estados Unidos</v>
       </c>
-      <c r="H17" s="258"/>
+      <c r="H17" s="258">
+        <v>1</v>
+      </c>
       <c r="I17" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="258"/>
+      <c r="J17" s="258">
+        <v>2</v>
+      </c>
       <c r="K17" s="38" t="str">
         <f>+VLOOKUP(B17,Aux!F:S,6,0)</f>
         <v>Uruguay</v>
@@ -41935,16 +41999,16 @@
         <v>GEHA Field at Arrowhead - KANSAS CITY, MO</v>
       </c>
       <c r="O17"/>
-      <c r="P17" s="280"/>
-      <c r="Q17" s="280"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="280"/>
-      <c r="T17" s="280"/>
-      <c r="U17" s="280"/>
-      <c r="V17" s="280"/>
-      <c r="W17" s="280"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="280"/>
+      <c r="P17" s="281"/>
+      <c r="Q17" s="281"/>
+      <c r="R17" s="281"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="281"/>
+      <c r="W17" s="281"/>
+      <c r="X17" s="281"/>
+      <c r="Y17" s="281"/>
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="53"/>
@@ -42015,11 +42079,15 @@
         <f>+VLOOKUP(B19,Aux!F:S,5,0)</f>
         <v>Bolivia</v>
       </c>
-      <c r="H19" s="258"/>
+      <c r="H19" s="258">
+        <v>1</v>
+      </c>
       <c r="I19" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="258"/>
+      <c r="J19" s="258">
+        <v>0</v>
+      </c>
       <c r="K19" s="38" t="str">
         <f>+VLOOKUP(B19,Aux!F:S,6,0)</f>
         <v>Panamá</v>
@@ -42077,20 +42145,20 @@
       <c r="K22" s="259"/>
     </row>
     <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K23" s="283" t="s">
+      <c r="K23" s="284" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K24" s="284"/>
+      <c r="K24" s="285"/>
     </row>
     <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K25" s="273" t="s">
+      <c r="K25" s="274" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K26" s="274"/>
+      <c r="K26" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -42152,7 +42220,7 @@
   <dimension ref="B1:AU26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -42206,9 +42274,9 @@
       <c r="P1" s="51"/>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
       <c r="V1" s="52"/>
       <c r="W1" s="51"/>
       <c r="X1" s="51"/>
@@ -42423,15 +42491,15 @@
       <c r="AQ5" s="53"/>
       <c r="AR5" s="245">
         <f>+VLOOKUP(AR7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS5" s="245">
         <f>+VLOOKUP(AS7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT5" s="245">
         <f>+VLOOKUP(AT7,$AD$9:$AF$15,3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU5" s="245">
         <f>+VLOOKUP(AU7,$AD$9:$AF$15,3,0)</f>
@@ -42448,33 +42516,33 @@
       <c r="D6" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="277"/>
-      <c r="L6" s="277"/>
-      <c r="M6" s="282"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="283"/>
       <c r="N6" s="185" t="s">
         <v>38</v>
       </c>
       <c r="O6" s="61"/>
-      <c r="P6" s="276" t="s">
+      <c r="P6" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="277"/>
-      <c r="R6" s="277"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="279"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="280"/>
       <c r="Z6" s="60"/>
       <c r="AA6" s="59"/>
       <c r="AB6" s="245"/>
@@ -42660,11 +42728,15 @@
         <f>+VLOOKUP(B9,Aux!F:S,5,0)</f>
         <v>Colombia</v>
       </c>
-      <c r="H9" s="258"/>
+      <c r="H9" s="258">
+        <v>2</v>
+      </c>
       <c r="I9" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="258"/>
+      <c r="J9" s="258">
+        <v>0</v>
+      </c>
       <c r="K9" s="38" t="str">
         <f>+VLOOKUP(B9,Aux!F:S,6,0)</f>
         <v>Paraguay</v>
@@ -42681,24 +42753,24 @@
       <c r="O9"/>
       <c r="P9" s="156" t="str">
         <f>+INDEX($AD$9:$AD$16,MATCH(1,$AO$9:$AO$15,0))</f>
-        <v>Brasil</v>
-      </c>
-      <c r="Q9" s="157" t="e" vm="15">
+        <v>Colombia</v>
+      </c>
+      <c r="Q9" s="157" t="e" vm="13">
         <f>IFERROR(VLOOKUP(P9,Aux!A:C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R9" s="158"/>
       <c r="S9" s="159">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,5,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="160">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,6,0)</f>
@@ -42706,15 +42778,15 @@
       </c>
       <c r="W9" s="161">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X9" s="161">
         <f>+VLOOKUP($P9,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="161">
         <f>+W9-X9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="60"/>
       <c r="AA9" s="57"/>
@@ -42728,19 +42800,19 @@
       </c>
       <c r="AE9" s="53">
         <f>+AG9+AH9+AI9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="53">
         <f>+AG9*3+AH9</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG9" s="53" cm="1">
         <f t="array" ref="AG9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="53" cm="1">
         <f t="array" ref="AH9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="53" cm="1">
         <f t="array" ref="AI9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22))</f>
@@ -42748,27 +42820,27 @@
       </c>
       <c r="AJ9" s="53" cm="1">
         <f t="array" ref="AJ9">SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)+($K$9:$K$22=$AD9)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK9" s="53" cm="1">
         <f t="array" ref="AK9">SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)+($K$9:$K$22=$AD9)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL9" s="252">
         <f>+SUMIFS($AR9:$AU9,$AR$5:$AU$5,AF9)</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AM9" s="252">
         <f>+AJ9-AK9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN9" s="53">
         <f>+_xlfn.RANK.EQ(AF9,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM9,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ9,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL9,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.1110089999999999</v>
+        <v>1.2110089999999998</v>
       </c>
       <c r="AO9" s="53">
         <f>+_xlfn.RANK.EQ(AN9,$AN$9:$AN$15,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP9" s="53"/>
       <c r="AQ9" s="53"/>
@@ -42791,14 +42863,14 @@
 (SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AT$7)))*100
 +SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($J$9:$J$22)*($G$9:$G$22=AT$7))
 -SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD9)*($H$9:$H$22)*($G$9:$G$22=AT$7))</f>
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="AU9" s="53" cm="1">
         <f t="array" ref="AU9">(SUM(($G$9:$G$22=$AD9)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AU$7)))*300+
 (SUM(($G$9:$G$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AU$7)))*100
 +SUM(($G$9:$G$22=$AD9)*($H$9:$H$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($J$9:$J$22)*($G$9:$G$22=AU$7))
 -SUM(($G$9:$G$22=$AD9)*($J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD9)*($H$9:$H$22)*($G$9:$G$22=AU$7))</f>
-        <v>100</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:47" s="54" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42872,11 +42944,15 @@
         <f>+VLOOKUP(B11,Aux!F:S,5,0)</f>
         <v>Brasil</v>
       </c>
-      <c r="H11" s="258"/>
+      <c r="H11" s="258">
+        <v>2</v>
+      </c>
       <c r="I11" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="258"/>
+      <c r="J11" s="258">
+        <v>0</v>
+      </c>
       <c r="K11" s="38" t="str">
         <f>+VLOOKUP(B11,Aux!F:S,6,0)</f>
         <v>Costa Rica</v>
@@ -42893,24 +42969,24 @@
       <c r="O11"/>
       <c r="P11" s="156" t="str">
         <f>+INDEX($AD$9:$AD$16,MATCH(2,$AO$9:$AO$15,0))</f>
-        <v>Colombia</v>
-      </c>
-      <c r="Q11" s="157" t="e" vm="13">
+        <v>Brasil</v>
+      </c>
+      <c r="Q11" s="157" t="e" vm="15">
         <f>IFERROR(VLOOKUP(P11,Aux!A:C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R11" s="158"/>
       <c r="S11" s="159">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,5,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="160">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,6,0)</f>
@@ -42918,15 +42994,15 @@
       </c>
       <c r="W11" s="161">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X11" s="161">
         <f>+VLOOKUP($P11,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="161">
         <f>+W11-X11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="60"/>
       <c r="AA11" s="59"/>
@@ -42940,19 +43016,19 @@
       </c>
       <c r="AE11" s="53">
         <f t="shared" ref="AE11" si="0">+AG11+AH11+AI11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="53">
         <f t="shared" ref="AF11" si="1">+AG11*3+AH11</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG11" s="53" cm="1">
         <f t="array" ref="AG11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="53" cm="1">
         <f t="array" ref="AH11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="53" cm="1">
         <f t="array" ref="AI11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22))</f>
@@ -42960,19 +43036,19 @@
       </c>
       <c r="AJ11" s="53" cm="1">
         <f t="array" ref="AJ11">SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)+($K$9:$K$22=$AD11)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK11" s="53" cm="1">
         <f t="array" ref="AK11">SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)+($K$9:$K$22=$AD11)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="252">
         <f>+SUMIFS($AR11:$AU11,$AR$5:$AU$5,AF11)</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AM11" s="252">
         <f>+AJ11-AK11</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN11" s="53">
         <f>+_xlfn.RANK.EQ(AF11,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM11,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ11,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL11,$AL$9:$AL$15)/1000+ROW()/1000000</f>
@@ -42980,7 +43056,7 @@
       </c>
       <c r="AO11" s="53">
         <f t="shared" ref="AO11" si="2">+_xlfn.RANK.EQ(AN11,$AN$9:$AN$15,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="53"/>
       <c r="AQ11" s="53"/>
@@ -43003,14 +43079,14 @@
 (SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AT$7)))*100
 +SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($J$9:$J$22)*($G$9:$G$22=AT$7))
 -SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD11)*($H$9:$H$22)*($G$9:$G$22=AT$7))</f>
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="AU11" s="53" cm="1">
         <f t="array" ref="AU11">(SUM(($G$9:$G$22=$AD11)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AU$7)))*300+
 (SUM(($G$9:$G$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AU$7)))*100
 +SUM(($G$9:$G$22=$AD11)*($H$9:$H$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($J$9:$J$22)*($G$9:$G$22=AU$7))
 -SUM(($G$9:$G$22=$AD11)*($J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD11)*($H$9:$H$22)*($G$9:$G$22=AU$7))</f>
-        <v>100</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="2:47" s="54" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -43084,11 +43160,15 @@
         <f>+VLOOKUP(B13,Aux!F:S,5,0)</f>
         <v>Colombia</v>
       </c>
-      <c r="H13" s="258"/>
+      <c r="H13" s="258">
+        <v>2</v>
+      </c>
       <c r="I13" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="258"/>
+      <c r="J13" s="258">
+        <v>0</v>
+      </c>
       <c r="K13" s="38" t="str">
         <f>+VLOOKUP(B13,Aux!F:S,6,0)</f>
         <v>Costa Rica</v>
@@ -43114,11 +43194,11 @@
       <c r="R13" s="158"/>
       <c r="S13" s="159">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,4,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,5,0)</f>
@@ -43126,19 +43206,19 @@
       </c>
       <c r="V13" s="160">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,6,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" s="161">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,7,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X13" s="161">
         <f>+VLOOKUP($P13,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y13" s="161">
         <f>+W13-X13</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z13" s="60"/>
       <c r="AA13" s="57"/>
@@ -43152,15 +43232,15 @@
       </c>
       <c r="AE13" s="53">
         <f t="shared" ref="AE13" si="3">+AG13+AH13+AI13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="53">
         <f t="shared" ref="AF13" si="4">+AG13*3+AH13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG13" s="53" cm="1">
         <f t="array" ref="AG13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22)+($K$9:$K$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="53" cm="1">
         <f t="array" ref="AH13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;"")+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($H$9:$H$22&lt;&gt;""))</f>
@@ -43168,27 +43248,27 @@
       </c>
       <c r="AI13" s="53" cm="1">
         <f t="array" ref="AI13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ13" s="53" cm="1">
         <f t="array" ref="AJ13">SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)+($K$9:$K$22=$AD13)*($J$9:$J$22))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="53" cm="1">
         <f t="array" ref="AK13">SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)+($K$9:$K$22=$AD13)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL13" s="252">
         <f>+SUMIFS($AR13:$AU13,$AR$5:$AU$5,AF13)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="252">
         <f>+AJ13-AK13</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN13" s="53">
         <f>+_xlfn.RANK.EQ(AF13,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM13,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ13,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL13,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.111013</v>
+        <v>3.3330129999999998</v>
       </c>
       <c r="AO13" s="53">
         <f t="shared" ref="AO13" si="5">+_xlfn.RANK.EQ(AN13,$AN$9:$AN$15,1)</f>
@@ -43201,14 +43281,14 @@
 (SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AR$7)))*100
 +SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD13)*($J$9:$J$22)*($G$9:$G$22=AR$7))
 -SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD13)*($H$9:$H$22)*($G$9:$G$22=AR$7))</f>
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="AS13" s="53" cm="1">
         <f t="array" ref="AS13">(SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AS$7)))*300+
 (SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AS$7)))*100
 +SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($J$9:$J$22)*($G$9:$G$22=AS$7))
 -SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD13)*($H$9:$H$22)*($G$9:$G$22=AS$7))</f>
-        <v>100</v>
+        <v>-2</v>
       </c>
       <c r="AT13" s="53" cm="1">
         <f t="array" ref="AT13">(SUM(($G$9:$G$22=$AD13)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD13)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AT$7)))*300+
@@ -43222,7 +43302,7 @@
 (SUM(($G$9:$G$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD13)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AU$7)))*100
 +SUM(($G$9:$G$22=$AD13)*($H$9:$H$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD13)*($J$9:$J$22)*($G$9:$G$22=AU$7))
 -SUM(($G$9:$G$22=$AD13)*($J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD13)*($H$9:$H$22)*($G$9:$G$22=AU$7))</f>
-        <v>100</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="2:47" s="54" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -43296,11 +43376,15 @@
         <f>+VLOOKUP(B15,Aux!F:S,5,0)</f>
         <v>Paraguay</v>
       </c>
-      <c r="H15" s="258"/>
+      <c r="H15" s="258">
+        <v>1</v>
+      </c>
       <c r="I15" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="258"/>
+      <c r="J15" s="258">
+        <v>2</v>
+      </c>
       <c r="K15" s="38" t="str">
         <f>+VLOOKUP(B15,Aux!F:S,6,0)</f>
         <v>Brasil</v>
@@ -43338,7 +43422,7 @@
       </c>
       <c r="V15" s="160">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,6,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W15" s="161">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,7,0)</f>
@@ -43346,11 +43430,11 @@
       </c>
       <c r="X15" s="161">
         <f>+VLOOKUP($P15,$AD$9:$AK$15,8,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="161">
         <f>+W15-X15</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="Z15" s="60"/>
       <c r="AA15" s="59"/>
@@ -43364,7 +43448,7 @@
       </c>
       <c r="AE15" s="53">
         <f t="shared" ref="AE15" si="6">+AG15+AH15+AI15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF15" s="53">
         <f t="shared" ref="AF15" si="7">+AG15*3+AH15</f>
@@ -43380,7 +43464,7 @@
       </c>
       <c r="AI15" s="53" cm="1">
         <f t="array" ref="AI15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ15" s="53" cm="1">
         <f t="array" ref="AJ15">SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)+($K$9:$K$22=$AD15)*($J$9:$J$22))</f>
@@ -43388,19 +43472,19 @@
       </c>
       <c r="AK15" s="53" cm="1">
         <f t="array" ref="AK15">SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)+($K$9:$K$22=$AD15)*($H$9:$H$22))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="252">
         <f>+SUMIFS($AR15:$AU15,$AR$5:$AU$5,AF15)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="252">
         <f>+AJ15-AK15</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AN15" s="53">
         <f>+_xlfn.RANK.EQ(AF15,$AF$9:$AF$15)+_xlfn.RANK.EQ(AM15,$AM$9:$AM$15)/10+_xlfn.RANK.EQ(AJ15,$AJ$9:$AJ$15)/100+_xlfn.RANK.EQ(AL15,$AL$9:$AL$15)/1000+ROW()/1000000</f>
-        <v>1.1110150000000001</v>
+        <v>4.4430150000000008</v>
       </c>
       <c r="AO15" s="53">
         <f t="shared" ref="AO15" si="8">+_xlfn.RANK.EQ(AN15,$AN$9:$AN$15,1)</f>
@@ -43413,21 +43497,21 @@
 (SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AR$7)))*100
 +SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($J$9:$J$22)*($G$9:$G$22=AR$7))
 -SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)*($K$9:$K$22=AR$7)+($K$9:$K$22=$AD15)*($H$9:$H$22)*($G$9:$G$22=AR$7))</f>
-        <v>100</v>
+        <v>-2</v>
       </c>
       <c r="AS15" s="53" cm="1">
         <f t="array" ref="AS15">(SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AS$7)))*300+
 (SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AS$7)))*100
 +SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($J$9:$J$22)*($G$9:$G$22=AS$7))
 -SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)*($K$9:$K$22=AS$7)+($K$9:$K$22=$AD15)*($H$9:$H$22)*($G$9:$G$22=AS$7))</f>
-        <v>100</v>
+        <v>-2</v>
       </c>
       <c r="AT15" s="53" cm="1">
         <f t="array" ref="AT15">(SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AT$7)))*300+
 (SUM(($G$9:$G$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($H$9:$H$22=$J$9:$J$22)*($G$9:$G$22=AT$7)))*100
 +SUM(($G$9:$G$22=$AD15)*($H$9:$H$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($J$9:$J$22)*($G$9:$G$22=AT$7))
 -SUM(($G$9:$G$22=$AD15)*($J$9:$J$22)*($K$9:$K$22=AT$7)+($K$9:$K$22=$AD15)*($H$9:$H$22)*($G$9:$G$22=AT$7))</f>
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="AU15" s="53" cm="1">
         <f t="array" ref="AU15">(SUM(($G$9:$G$22=$AD15)*($H$9:$H$22&gt;$J$9:$J$22)*($K$9:$K$22=AU$7)+($K$9:$K$22=$AD15)*($H$9:$H$22&lt;$J$9:$J$22)*($G$9:$G$22=AU$7)))*300+
@@ -43508,11 +43592,15 @@
         <f>+VLOOKUP(B17,Aux!F:S,5,0)</f>
         <v>Brasil</v>
       </c>
-      <c r="H17" s="258"/>
+      <c r="H17" s="258">
+        <v>1</v>
+      </c>
       <c r="I17" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="258"/>
+      <c r="J17" s="258">
+        <v>1</v>
+      </c>
       <c r="K17" s="38" t="str">
         <f>+VLOOKUP(B17,Aux!F:S,6,0)</f>
         <v>Colombia</v>
@@ -43527,16 +43615,16 @@
         <v>Levi's Stadium - SANTA CLARA, CA</v>
       </c>
       <c r="O17"/>
-      <c r="P17" s="280"/>
-      <c r="Q17" s="280"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="280"/>
-      <c r="T17" s="280"/>
-      <c r="U17" s="280"/>
-      <c r="V17" s="280"/>
-      <c r="W17" s="280"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="280"/>
+      <c r="P17" s="281"/>
+      <c r="Q17" s="281"/>
+      <c r="R17" s="281"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="281"/>
+      <c r="W17" s="281"/>
+      <c r="X17" s="281"/>
+      <c r="Y17" s="281"/>
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="53"/>
@@ -43607,11 +43695,15 @@
         <f>+VLOOKUP(B19,Aux!F:S,5,0)</f>
         <v>Costa Rica</v>
       </c>
-      <c r="H19" s="258"/>
+      <c r="H19" s="258">
+        <v>0</v>
+      </c>
       <c r="I19" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="258"/>
+      <c r="J19" s="258">
+        <v>1</v>
+      </c>
       <c r="K19" s="38" t="str">
         <f>+VLOOKUP(B19,Aux!F:S,6,0)</f>
         <v>Paraguay</v>
@@ -43669,20 +43761,20 @@
       <c r="K22" s="259"/>
     </row>
     <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K23" s="283" t="s">
+      <c r="K23" s="284" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K24" s="284"/>
+      <c r="K24" s="285"/>
     </row>
     <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K25" s="273" t="s">
+      <c r="K25" s="274" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K26" s="274"/>
+      <c r="K26" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -43744,7 +43836,7 @@
   <dimension ref="A7:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43782,15 +43874,15 @@
       </c>
       <c r="F7" s="179"/>
       <c r="G7" s="179"/>
-      <c r="H7" s="285" t="s">
+      <c r="H7" s="286" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="285"/>
-      <c r="N7" s="285"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="286"/>
+      <c r="N7" s="286"/>
       <c r="O7" s="177"/>
       <c r="P7" s="177"/>
       <c r="Q7" s="75" t="s">
@@ -43845,11 +43937,15 @@
         <v>Argentina</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="16">
+        <v>2</v>
+      </c>
       <c r="K9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="16">
+        <v>1</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="17" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDIRECT(RIGHT(B9,1)&amp;"!P"&amp;7+LEFT(B9,1)*2)</f>
@@ -43865,8 +43961,8 @@
         <v>NRG Stadium - HOUSTON, TX</v>
       </c>
       <c r="S9" s="18" t="str">
-        <f>IF(OR(J9="",L9=""),"",IF(J9&gt;L9,H9,IF(J9&lt;L9,N9,IF(OR(J10="",L10=""),"",IF(J10&gt;L10,H9,N9)))))</f>
-        <v/>
+        <f ca="1">IF(OR(J9="",L9=""),"",IF(J9&gt;L9,H9,IF(J9&lt;L9,N9,IF(OR(J10="",L10=""),"",IF(J10&gt;L10,H9,N9)))))</f>
+        <v>Argentina</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -43929,26 +44025,30 @@
         <v>45478.875000000007</v>
       </c>
       <c r="F12" s="180"/>
-      <c r="G12" s="180" t="e" vm="7">
+      <c r="G12" s="180" t="e" vm="6">
         <f ca="1">IFERROR(VLOOKUP(H12,Aux!$A:$C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="H12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDIRECT(RIGHT(A12,1)&amp;"!P"&amp;7+LEFT(A12,1)*2)</f>
-        <v>México</v>
+        <v>Venezuela</v>
       </c>
       <c r="I12" s="25"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="16">
+        <v>1</v>
+      </c>
       <c r="K12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="17" t="str" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">INDIRECT(RIGHT(B12,1)&amp;"!P"&amp;7+LEFT(B12,1)*2)</f>
-        <v>Perú</v>
-      </c>
-      <c r="O12" s="180" t="e" vm="3">
+        <v>Chile</v>
+      </c>
+      <c r="O12" s="180" t="e" vm="4">
         <f ca="1">IFERROR(VLOOKUP(N12,Aux!$A:$C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
@@ -43958,8 +44058,8 @@
         <v>AT&amp;T Stadium - ARLINGTON, TX</v>
       </c>
       <c r="S12" s="18" t="str">
-        <f>IF(OR(J12="",L12=""),"",IF(J12&gt;L12,H12,IF(J12&lt;L12,N12,IF(OR(J13="",L13=""),"",IF(J13&gt;L13,H12,N12)))))</f>
-        <v/>
+        <f ca="1">IF(OR(J12="",L12=""),"",IF(J12&gt;L12,H12,IF(J12&lt;L12,N12,IF(OR(J13="",L13=""),"",IF(J13&gt;L13,H12,N12)))))</f>
+        <v>Venezuela</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44022,26 +44122,30 @@
         <v>45480.75</v>
       </c>
       <c r="F15" s="180"/>
-      <c r="G15" s="180" t="e" vm="15">
+      <c r="G15" s="180" t="e" vm="13">
         <f ca="1">IFERROR(VLOOKUP(H15,Aux!$A:$C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="H15" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDIRECT(RIGHT(A15,1)&amp;"!P"&amp;7+LEFT(A15,1)*2)</f>
-        <v>Brasil</v>
+        <v>Colombia</v>
       </c>
       <c r="I15" s="25"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="16">
+        <v>3</v>
+      </c>
       <c r="K15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="16">
+        <v>1</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="17" t="str" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">INDIRECT(RIGHT(B15,1)&amp;"!P"&amp;7+LEFT(B15,1)*2)</f>
-        <v>Uruguay</v>
-      </c>
-      <c r="O15" s="180" t="e" vm="11">
+        <v>Estados Unidos</v>
+      </c>
+      <c r="O15" s="180" t="e" vm="9">
         <f ca="1">IFERROR(VLOOKUP(N15,Aux!$A:$C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
@@ -44051,8 +44155,8 @@
         <v>Allegiant Stadium - LAS VEGAS, NV</v>
       </c>
       <c r="S15" s="18" t="str">
-        <f>IF(OR(J15="",L15=""),"",IF(J15&gt;L15,H15,IF(J15&lt;L15,N15,IF(OR(J16="",L16=""),"",IF(J16&gt;L16,H15,N15)))))</f>
-        <v/>
+        <f ca="1">IF(OR(J15="",L15=""),"",IF(J15&gt;L15,H15,IF(J15&lt;L15,N15,IF(OR(J16="",L16=""),"",IF(J16&gt;L16,H15,N15)))))</f>
+        <v>Colombia</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44115,26 +44219,30 @@
         <v>45480.875</v>
       </c>
       <c r="F18" s="180"/>
-      <c r="G18" s="180" t="e" vm="9">
+      <c r="G18" s="180" t="e" vm="11">
         <f ca="1">IFERROR(VLOOKUP(H18,Aux!$A:$C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="H18" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDIRECT(RIGHT(A18,1)&amp;"!P"&amp;7+LEFT(A18,1)*2)</f>
-        <v>Estados Unidos</v>
+        <v>Uruguay</v>
       </c>
       <c r="I18" s="25"/>
-      <c r="J18" s="16"/>
+      <c r="J18" s="16">
+        <v>3</v>
+      </c>
       <c r="K18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="16">
+        <v>1</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="17" t="str" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">INDIRECT(RIGHT(B18,1)&amp;"!P"&amp;7+LEFT(B18,1)*2)</f>
-        <v>Colombia</v>
-      </c>
-      <c r="O18" s="180" t="e" vm="13">
+        <v>Brasil</v>
+      </c>
+      <c r="O18" s="180" t="e" vm="15">
         <f ca="1">IFERROR(VLOOKUP(N18,Aux!$A:$C,3,0),"")</f>
         <v>#VALUE!</v>
       </c>
@@ -44144,8 +44252,8 @@
         <v>State Farm Stadium - GLENDALE, AZ</v>
       </c>
       <c r="S18" s="18" t="str">
-        <f>IF(OR(J18="",L18=""),"",IF(J18&gt;L18,H18,IF(J18&lt;L18,N18,IF(OR(J19="",L19=""),"",IF(J19&gt;L19,H18,N18)))))</f>
-        <v/>
+        <f ca="1">IF(OR(J18="",L18=""),"",IF(J18&gt;L18,H18,IF(J18&lt;L18,N18,IF(OR(J19="",L19=""),"",IF(J19&gt;L19,H18,N18)))))</f>
+        <v>Uruguay</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44191,20 +44299,20 @@
       <c r="S22" s="259"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S23" s="283" t="s">
+      <c r="S23" s="284" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S24" s="284"/>
+      <c r="S24" s="285"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S25" s="273" t="s">
+      <c r="S25" s="274" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S26" s="274"/>
+      <c r="S26" s="275"/>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S27" s="50"/>
@@ -44361,7 +44469,7 @@
   <dimension ref="A7:S21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44399,15 +44507,15 @@
       </c>
       <c r="F7" s="179"/>
       <c r="G7" s="179"/>
-      <c r="H7" s="285" t="s">
+      <c r="H7" s="286" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="285"/>
-      <c r="N7" s="285"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="286"/>
+      <c r="N7" s="286"/>
       <c r="O7" s="177"/>
       <c r="P7" s="177"/>
       <c r="Q7" s="75" t="s">
@@ -44447,28 +44555,32 @@
         <v>45482.833333333336</v>
       </c>
       <c r="F9" s="180"/>
-      <c r="G9" s="180" t="str">
-        <f>IFERROR(VLOOKUP(H9,Aux!$A:$C,3,0),"")</f>
-        <v/>
+      <c r="G9" s="180" t="e" vm="1">
+        <f ca="1">IFERROR(VLOOKUP(H9,Aux!$A:$C,3,0),"")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f>+Cuartos!S9</f>
-        <v/>
+        <f ca="1">+Cuartos!S9</f>
+        <v>Argentina</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="16">
+        <v>2</v>
+      </c>
       <c r="K9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="17" t="str">
-        <f>+Cuartos!S12</f>
-        <v/>
-      </c>
-      <c r="O9" s="180" t="str">
-        <f>IFERROR(VLOOKUP(N9,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <f ca="1">+Cuartos!S12</f>
+        <v>Venezuela</v>
+      </c>
+      <c r="O9" s="180" t="e" vm="6">
+        <f ca="1">IFERROR(VLOOKUP(N9,Aux!$A:$C,3,0),"")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="175" t="str">
@@ -44476,8 +44588,8 @@
         <v>MetLife Stadium - EAST RUTHERFORD, NJ</v>
       </c>
       <c r="S9" s="18" t="str">
-        <f>IF(OR(J9="",L9=""),"",IF(J9&gt;L9,H9,IF(J9&lt;L9,N9,IF(OR(J10="",L10=""),"",IF(J10&gt;L10,H9,N9)))))</f>
-        <v/>
+        <f ca="1">IF(OR(J9="",L9=""),"",IF(J9&gt;L9,H9,IF(J9&lt;L9,N9,IF(OR(J10="",L10=""),"",IF(J10&gt;L10,H9,N9)))))</f>
+        <v>Argentina</v>
       </c>
     </row>
     <row r="10" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44534,28 +44646,32 @@
         <v>45483.833333333336</v>
       </c>
       <c r="F12" s="180"/>
-      <c r="G12" s="180" t="str">
-        <f>IFERROR(VLOOKUP(H12,Aux!$A:$C,3,0),"")</f>
-        <v/>
+      <c r="G12" s="180" t="e" vm="11">
+        <f ca="1">IFERROR(VLOOKUP(H12,Aux!$A:$C,3,0),"")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f>+Cuartos!S18</f>
-        <v/>
+        <f ca="1">+Cuartos!S18</f>
+        <v>Uruguay</v>
       </c>
       <c r="I12" s="25"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="16">
+        <v>2</v>
+      </c>
       <c r="K12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="16">
+        <v>1</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="17" t="str">
-        <f>+Cuartos!S15</f>
-        <v/>
-      </c>
-      <c r="O12" s="180" t="str">
-        <f>IFERROR(VLOOKUP(N12,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <f ca="1">+Cuartos!S15</f>
+        <v>Colombia</v>
+      </c>
+      <c r="O12" s="180" t="e" vm="13">
+        <f ca="1">IFERROR(VLOOKUP(N12,Aux!$A:$C,3,0),"")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="175" t="str">
@@ -44563,8 +44679,8 @@
         <v>Bank of America Stadium - CHARLOTTE, NC</v>
       </c>
       <c r="S12" s="18" t="str">
-        <f>IF(OR(J12="",L12=""),"",IF(J12&gt;L12,H12,IF(J12&lt;L12,N12,IF(OR(J13="",L13=""),"",IF(J13&gt;L13,H12,N12)))))</f>
-        <v/>
+        <f ca="1">IF(OR(J12="",L12=""),"",IF(J12&gt;L12,H12,IF(J12&lt;L12,N12,IF(OR(J13="",L13=""),"",IF(J13&gt;L13,H12,N12)))))</f>
+        <v>Uruguay</v>
       </c>
     </row>
     <row r="13" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44610,20 +44726,20 @@
       <c r="S16" s="259"/>
     </row>
     <row r="17" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S17" s="283" t="s">
+      <c r="S17" s="284" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" spans="19:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S18" s="284"/>
+      <c r="S18" s="285"/>
     </row>
     <row r="19" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S19" s="273" t="s">
+      <c r="S19" s="274" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="20" spans="19:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S20" s="274"/>
+      <c r="S20" s="275"/>
     </row>
     <row r="21" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S21" s="50"/>
@@ -44729,8 +44845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD85B77-BD46-4A81-A2DE-67A7A5FBB574}">
   <dimension ref="A7:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44768,15 +44884,15 @@
       </c>
       <c r="F7" s="179"/>
       <c r="G7" s="179"/>
-      <c r="H7" s="285" t="s">
+      <c r="H7" s="286" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="285"/>
-      <c r="N7" s="285"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="286"/>
+      <c r="N7" s="286"/>
       <c r="O7" s="177"/>
       <c r="P7" s="177"/>
       <c r="Q7" s="75" t="s">
@@ -44813,28 +44929,32 @@
         <v>45486.833333333336</v>
       </c>
       <c r="F9" s="180"/>
-      <c r="G9" s="180" t="str">
-        <f>IFERROR(VLOOKUP(H9,Aux!$A:$C,3,0),"")</f>
-        <v/>
+      <c r="G9" s="180" t="e" vm="6">
+        <f ca="1">IFERROR(VLOOKUP(H9,Aux!$A:$C,3,0),"")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f>IF(OR(Semis!J9="",Semis!L9=""),"",IF(Semis!J9&gt;Semis!L9,Semis!N9,IF(Semis!J9&lt;Semis!L9,Semis!H9,IF(OR(Semis!J10="",Semis!L10=""),"",IF(Semis!J10&gt;Semis!L10,Semis!N9,Semis!H9)))))</f>
-        <v/>
+        <f ca="1">IF(OR(Semis!J9="",Semis!L9=""),"",IF(Semis!J9&gt;Semis!L9,Semis!N9,IF(Semis!J9&lt;Semis!L9,Semis!H9,IF(OR(Semis!J10="",Semis!L10=""),"",IF(Semis!J10&gt;Semis!L10,Semis!N9,Semis!H9)))))</f>
+        <v>Venezuela</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="16">
+        <v>1</v>
+      </c>
       <c r="K9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="17" t="str">
-        <f>IF(OR(Semis!J12="",Semis!L12=""),"",IF(Semis!J12&gt;Semis!L12,Semis!N12,IF(Semis!J12&lt;Semis!L12,Semis!H12,IF(OR(Semis!J13="",Semis!L13=""),"",IF(Semis!J13&gt;Semis!L13,Semis!N12,Semis!H12)))))</f>
-        <v/>
-      </c>
-      <c r="O9" s="180" t="str">
-        <f>IFERROR(VLOOKUP(N9,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <f ca="1">IF(OR(Semis!J12="",Semis!L12=""),"",IF(Semis!J12&gt;Semis!L12,Semis!N12,IF(Semis!J12&lt;Semis!L12,Semis!H12,IF(OR(Semis!J13="",Semis!L13=""),"",IF(Semis!J13&gt;Semis!L13,Semis!N12,Semis!H12)))))</f>
+        <v>Colombia</v>
+      </c>
+      <c r="O9" s="180" t="e" vm="13">
+        <f ca="1">IFERROR(VLOOKUP(N9,Aux!$A:$C,3,0),"")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="175" t="str">
@@ -44892,15 +45012,15 @@
       </c>
       <c r="F13" s="179"/>
       <c r="G13" s="179"/>
-      <c r="H13" s="285" t="s">
+      <c r="H13" s="286" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="285"/>
-      <c r="M13" s="285"/>
-      <c r="N13" s="285"/>
+      <c r="I13" s="286"/>
+      <c r="J13" s="286"/>
+      <c r="K13" s="286"/>
+      <c r="L13" s="286"/>
+      <c r="M13" s="286"/>
+      <c r="N13" s="286"/>
       <c r="O13" s="177"/>
       <c r="P13" s="177"/>
       <c r="Q13" s="75" t="s">
@@ -44937,28 +45057,32 @@
         <v>45487.833333333336</v>
       </c>
       <c r="F15" s="180"/>
-      <c r="G15" s="180" t="str">
-        <f>IFERROR(VLOOKUP(H15,Aux!$A:$C,3,0),"")</f>
-        <v/>
+      <c r="G15" s="180" t="e" vm="1">
+        <f ca="1">IFERROR(VLOOKUP(H15,Aux!$A:$C,3,0),"")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f>+Semis!S9</f>
-        <v/>
+        <f ca="1">+Semis!S9</f>
+        <v>Argentina</v>
       </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="16">
+        <v>3</v>
+      </c>
       <c r="K15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="16">
+        <v>2</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="17" t="str">
-        <f>+Semis!S12</f>
-        <v/>
-      </c>
-      <c r="O15" s="180" t="str">
-        <f>IFERROR(VLOOKUP(N15,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <f ca="1">+Semis!S12</f>
+        <v>Uruguay</v>
+      </c>
+      <c r="O15" s="180" t="e" vm="11">
+        <f ca="1">IFERROR(VLOOKUP(N15,Aux!$A:$C,3,0),"")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="175" t="str">
@@ -45005,44 +45129,44 @@
       <c r="Q17" s="11"/>
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="287" t="s">
+      <c r="H19" s="288" t="s">
         <v>164</v>
       </c>
-      <c r="I19" s="287"/>
-      <c r="J19" s="287"/>
-      <c r="K19" s="287"/>
-      <c r="L19" s="287"/>
-      <c r="M19" s="287"/>
-      <c r="N19" s="287"/>
+      <c r="I19" s="288"/>
+      <c r="J19" s="288"/>
+      <c r="K19" s="288"/>
+      <c r="L19" s="288"/>
+      <c r="M19" s="288"/>
+      <c r="N19" s="288"/>
       <c r="S19" s="259"/>
     </row>
     <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="287"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="287"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="287"/>
-      <c r="M20" s="287"/>
-      <c r="N20" s="287"/>
-      <c r="S20" s="283" t="s">
+      <c r="H20" s="288"/>
+      <c r="I20" s="288"/>
+      <c r="J20" s="288"/>
+      <c r="K20" s="288"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="288"/>
+      <c r="N20" s="288"/>
+      <c r="S20" s="284" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="21" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S21" s="284"/>
+      <c r="S21" s="285"/>
     </row>
     <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="288" t="str">
-        <f>IF(OR(J15="",L15=""),"",IF(J15&gt;L15,H15,IF(J15&lt;L15,N15,IF(OR(J16="",L16=""),"",IF(J16&gt;L16,H15,N15)))))</f>
-        <v/>
-      </c>
-      <c r="I22" s="288"/>
-      <c r="J22" s="288"/>
-      <c r="K22" s="288"/>
-      <c r="L22" s="288"/>
-      <c r="M22" s="288"/>
-      <c r="N22" s="288"/>
-      <c r="S22" s="273" t="s">
+      <c r="H22" s="289" t="str">
+        <f ca="1">IF(OR(J15="",L15=""),"",IF(J15&gt;L15,H15,IF(J15&lt;L15,N15,IF(OR(J16="",L16=""),"",IF(J16&gt;L16,H15,N15)))))</f>
+        <v>Argentina</v>
+      </c>
+      <c r="I22" s="289"/>
+      <c r="J22" s="289"/>
+      <c r="K22" s="289"/>
+      <c r="L22" s="289"/>
+      <c r="M22" s="289"/>
+      <c r="N22" s="289"/>
+      <c r="S22" s="274" t="s">
         <v>194</v>
       </c>
     </row>
@@ -45052,17 +45176,17 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23" s="288"/>
-      <c r="I23" s="288"/>
-      <c r="J23" s="288"/>
-      <c r="K23" s="288"/>
-      <c r="L23" s="288"/>
-      <c r="M23" s="288"/>
-      <c r="N23" s="288"/>
+      <c r="H23" s="289"/>
+      <c r="I23" s="289"/>
+      <c r="J23" s="289"/>
+      <c r="K23" s="289"/>
+      <c r="L23" s="289"/>
+      <c r="M23" s="289"/>
+      <c r="N23" s="289"/>
       <c r="O23" s="178"/>
       <c r="P23" s="178"/>
       <c r="Q23"/>
-      <c r="S23" s="274"/>
+      <c r="S23" s="275"/>
     </row>
     <row r="24" spans="3:19" s="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24"/>
@@ -45083,43 +45207,43 @@
       <c r="S24" s="50"/>
     </row>
     <row r="25" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="286" t="str">
-        <f>IFERROR(VLOOKUP(H22,Aux!$A:$C,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="I25" s="286"/>
-      <c r="J25" s="286"/>
-      <c r="K25" s="286"/>
-      <c r="L25" s="286"/>
-      <c r="M25" s="286"/>
-      <c r="N25" s="286"/>
+      <c r="H25" s="287" t="e" vm="1">
+        <f ca="1">IFERROR(VLOOKUP(H22,Aux!$A:$C,3,0),"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" s="287"/>
+      <c r="J25" s="287"/>
+      <c r="K25" s="287"/>
+      <c r="L25" s="287"/>
+      <c r="M25" s="287"/>
+      <c r="N25" s="287"/>
     </row>
     <row r="26" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="286"/>
-      <c r="I26" s="286"/>
-      <c r="J26" s="286"/>
-      <c r="K26" s="286"/>
-      <c r="L26" s="286"/>
-      <c r="M26" s="286"/>
-      <c r="N26" s="286"/>
+      <c r="H26" s="287"/>
+      <c r="I26" s="287"/>
+      <c r="J26" s="287"/>
+      <c r="K26" s="287"/>
+      <c r="L26" s="287"/>
+      <c r="M26" s="287"/>
+      <c r="N26" s="287"/>
     </row>
     <row r="27" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="286"/>
-      <c r="I27" s="286"/>
-      <c r="J27" s="286"/>
-      <c r="K27" s="286"/>
-      <c r="L27" s="286"/>
-      <c r="M27" s="286"/>
-      <c r="N27" s="286"/>
+      <c r="H27" s="287"/>
+      <c r="I27" s="287"/>
+      <c r="J27" s="287"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="287"/>
+      <c r="M27" s="287"/>
+      <c r="N27" s="287"/>
     </row>
     <row r="28" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="286"/>
-      <c r="I28" s="286"/>
-      <c r="J28" s="286"/>
-      <c r="K28" s="286"/>
-      <c r="L28" s="286"/>
-      <c r="M28" s="286"/>
-      <c r="N28" s="286"/>
+      <c r="H28" s="287"/>
+      <c r="I28" s="287"/>
+      <c r="J28" s="287"/>
+      <c r="K28" s="287"/>
+      <c r="L28" s="287"/>
+      <c r="M28" s="287"/>
+      <c r="N28" s="287"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -45417,13 +45541,13 @@
       <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="68" t="str">
+      <c r="N3" s="68">
         <f t="shared" ref="N3:N25" ca="1" si="2">IF(VLOOKUP(F3,INDIRECT(M3&amp;"!B:M"),7,0)="","",VLOOKUP(F3,INDIRECT(M3&amp;"!B:M"),7,0))</f>
-        <v/>
-      </c>
-      <c r="O3" s="68" t="str">
+        <v>1</v>
+      </c>
+      <c r="O3" s="68">
         <f t="shared" ref="O3:O25" ca="1" si="3">IF(VLOOKUP(F3,INDIRECT(M3&amp;"!B:M"),9,0)="","",VLOOKUP(F3,INDIRECT(M3&amp;"!B:M"),9,0))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>13</v>
@@ -45479,13 +45603,13 @@
       <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="68" t="str">
+      <c r="N4" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O4" s="68" t="str">
+        <v>1</v>
+      </c>
+      <c r="O4" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>13</v>
@@ -45540,13 +45664,13 @@
       <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="68" t="str">
+      <c r="N5" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O5" s="68" t="str">
+        <v>1</v>
+      </c>
+      <c r="O5" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
@@ -45601,13 +45725,13 @@
       <c r="M6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="68" t="str">
+      <c r="N6" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O6" s="68" t="str">
+        <v>4</v>
+      </c>
+      <c r="O6" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>12</v>
@@ -45662,13 +45786,13 @@
       <c r="M7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="68" t="str">
+      <c r="N7" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O7" s="68" t="str">
+        <v>4</v>
+      </c>
+      <c r="O7" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>12</v>
@@ -45723,13 +45847,13 @@
       <c r="M8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="68" t="str">
+      <c r="N8" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O8" s="68" t="str">
+        <v>2</v>
+      </c>
+      <c r="O8" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>12</v>
@@ -45784,13 +45908,13 @@
       <c r="M9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="68" t="str">
+      <c r="N9" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O9" s="68" t="str">
+        <v>2</v>
+      </c>
+      <c r="O9" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>12</v>
@@ -45845,13 +45969,13 @@
       <c r="M10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="68" t="str">
+      <c r="N10" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O10" s="68" t="str">
+        <v>0</v>
+      </c>
+      <c r="O10" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>15</v>
@@ -45906,13 +46030,13 @@
       <c r="M11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="68" t="str">
+      <c r="N11" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O11" s="68" t="str">
+        <v>2</v>
+      </c>
+      <c r="O11" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>15</v>
@@ -45967,13 +46091,13 @@
       <c r="M12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="68" t="str">
+      <c r="N12" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O12" s="68" t="str">
+        <v>3</v>
+      </c>
+      <c r="O12" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>15</v>
@@ -46028,13 +46152,13 @@
       <c r="M13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="68" t="str">
+      <c r="N13" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O13" s="68" t="str">
+        <v>0</v>
+      </c>
+      <c r="O13" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>15</v>
@@ -46089,13 +46213,13 @@
       <c r="M14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="68" t="str">
+      <c r="N14" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O14" s="68" t="str">
+        <v>0</v>
+      </c>
+      <c r="O14" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>17</v>
@@ -46150,13 +46274,13 @@
       <c r="M15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="68" t="str">
+      <c r="N15" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O15" s="68" t="str">
+        <v>3</v>
+      </c>
+      <c r="O15" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>17</v>
@@ -46211,13 +46335,13 @@
       <c r="M16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="68" t="str">
+      <c r="N16" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O16" s="68" t="str">
+        <v>2</v>
+      </c>
+      <c r="O16" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>17</v>
@@ -46272,13 +46396,13 @@
       <c r="M17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="68" t="str">
+      <c r="N17" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O17" s="68" t="str">
+        <v>1</v>
+      </c>
+      <c r="O17" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>17</v>
@@ -46326,13 +46450,13 @@
       <c r="M18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="68" t="str">
+      <c r="N18" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O18" s="68" t="str">
+        <v>3</v>
+      </c>
+      <c r="O18" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="2"/>
@@ -46374,13 +46498,13 @@
       <c r="M19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N19" s="68" t="str">
+      <c r="N19" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O19" s="68" t="str">
+        <v>1</v>
+      </c>
+      <c r="O19" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="2"/>
@@ -46415,13 +46539,13 @@
       <c r="M20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="68" t="str">
+      <c r="N20" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O20" s="68" t="str">
+        <v>0</v>
+      </c>
+      <c r="O20" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="2"/>
@@ -46456,13 +46580,13 @@
       <c r="M21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="68" t="str">
+      <c r="N21" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O21" s="68" t="str">
+        <v>0</v>
+      </c>
+      <c r="O21" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="2"/>
@@ -46496,13 +46620,13 @@
       <c r="M22" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="68" t="str">
+      <c r="N22" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O22" s="68" t="str">
+        <v>1</v>
+      </c>
+      <c r="O22" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="2"/>
@@ -46537,13 +46661,13 @@
       <c r="M23" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="N23" s="68" t="str">
+      <c r="N23" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O23" s="68" t="str">
+        <v>1</v>
+      </c>
+      <c r="O23" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="2"/>
@@ -46577,13 +46701,13 @@
       <c r="M24" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="68" t="str">
+      <c r="N24" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O24" s="68" t="str">
+        <v>1</v>
+      </c>
+      <c r="O24" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="2"/>
@@ -46618,13 +46742,13 @@
       <c r="M25" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="68" t="str">
+      <c r="N25" s="68">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O25" s="68" t="str">
+        <v>0</v>
+      </c>
+      <c r="O25" s="68">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="2"/>
@@ -46657,13 +46781,13 @@
       <c r="M26" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="68" t="str">
+      <c r="N26" s="68">
         <f ca="1">IF(VLOOKUP(F26,INDIRECT(M26&amp;"!C:M"),8,0)="","",VLOOKUP(F26,INDIRECT(M26&amp;"!C:M"),8,0))</f>
-        <v/>
-      </c>
-      <c r="O26" s="68" t="str">
+        <v>2</v>
+      </c>
+      <c r="O26" s="68">
         <f ca="1">IF(VLOOKUP(F26,INDIRECT(M26&amp;"!C:M"),10,0)="","",VLOOKUP(F26,INDIRECT(M26&amp;"!C:M"),10,0))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="2"/>
@@ -46695,13 +46819,13 @@
       <c r="M27" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="68" t="str">
+      <c r="N27" s="68">
         <f t="shared" ref="N27:N33" ca="1" si="4">IF(VLOOKUP(F27,INDIRECT(M27&amp;"!C:M"),8,0)="","",VLOOKUP(F27,INDIRECT(M27&amp;"!C:M"),8,0))</f>
-        <v/>
-      </c>
-      <c r="O27" s="68" t="str">
+        <v>1</v>
+      </c>
+      <c r="O27" s="68">
         <f t="shared" ref="O27:O33" ca="1" si="5">IF(VLOOKUP(F27,INDIRECT(M27&amp;"!C:M"),10,0)="","",VLOOKUP(F27,INDIRECT(M27&amp;"!C:M"),10,0))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
@@ -46732,13 +46856,13 @@
       <c r="M28" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="68" t="str">
+      <c r="N28" s="68">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O28" s="68" t="str">
+        <v>3</v>
+      </c>
+      <c r="O28" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="2"/>
@@ -46769,13 +46893,13 @@
       <c r="M29" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="68" t="str">
+      <c r="N29" s="68">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O29" s="68" t="str">
+        <v>3</v>
+      </c>
+      <c r="O29" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="2"/>
@@ -46806,13 +46930,13 @@
       <c r="M30" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="N30" s="68" t="str">
+      <c r="N30" s="68">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O30" s="68" t="str">
+        <v>2</v>
+      </c>
+      <c r="O30" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="2"/>
@@ -46843,13 +46967,13 @@
       <c r="M31" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="68" t="str">
+      <c r="N31" s="68">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O31" s="68" t="str">
+        <v>2</v>
+      </c>
+      <c r="O31" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="2"/>
@@ -46880,13 +47004,13 @@
       <c r="M32" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="N32" s="68" t="str">
+      <c r="N32" s="68">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O32" s="68" t="str">
+        <v>1</v>
+      </c>
+      <c r="O32" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="2"/>
@@ -46917,13 +47041,13 @@
       <c r="M33" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="N33" s="68" t="str">
+      <c r="N33" s="68">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O33" s="68" t="str">
+        <v>3</v>
+      </c>
+      <c r="O33" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Participantes/Leiner.xlsx
+++ b/Participantes/Leiner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leine\Documentos\QUINIELA-VENECA\Participantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505A3D7E-60A5-4489-9203-F3CC7BC193C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641DAE70-9EB1-4422-A276-1C97EF11BB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{A1A07F19-1258-4827-8AF7-173CDFEC396E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{A1A07F19-1258-4827-8AF7-173CDFEC396E}"/>
   </bookViews>
   <sheets>
     <sheet name="Normas" sheetId="23" r:id="rId1"/>
@@ -43835,7 +43835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1F5827-35E0-4481-9171-8891A6A765D1}">
   <dimension ref="A7:S27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -44845,7 +44845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD85B77-BD46-4A81-A2DE-67A7A5FBB574}">
   <dimension ref="A7:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>

--- a/Participantes/Leiner.xlsx
+++ b/Participantes/Leiner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leine\Documentos\QUINIELA-VENECA\Participantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641DAE70-9EB1-4422-A276-1C97EF11BB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19033045-ABD2-4223-81A8-F425C5F2A664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{A1A07F19-1258-4827-8AF7-173CDFEC396E}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A1A07F19-1258-4827-8AF7-173CDFEC396E}"/>
   </bookViews>
   <sheets>
     <sheet name="Normas" sheetId="23" r:id="rId1"/>
@@ -8447,7 +8447,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -43835,7 +43835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1F5827-35E0-4481-9171-8891A6A765D1}">
   <dimension ref="A7:S27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
